--- a/lexicon backup.xlsx
+++ b/lexicon backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjohns/Desktop/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23791FF2-AEAC-9C46-98AC-596CCEBBD23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DFFEDE-D0DD-3F47-8A98-F7BE2D4D4B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2760" windowWidth="27640" windowHeight="16680" xr2:uid="{94D6E9CA-AF84-3445-BCA6-352956A682AC}"/>
   </bookViews>
@@ -3580,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C70B7F-39B1-CF49-AFC9-B05A2423C135}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4732,10 +4732,10 @@
         <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -4767,10 +4767,10 @@
         <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="51" x14ac:dyDescent="0.2">

--- a/lexicon backup.xlsx
+++ b/lexicon backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjohns/Desktop/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DFFEDE-D0DD-3F47-8A98-F7BE2D4D4B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666E37E-56D1-314B-9802-90E17E19437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2760" windowWidth="27640" windowHeight="16680" xr2:uid="{94D6E9CA-AF84-3445-BCA6-352956A682AC}"/>
+    <workbookView xWindow="900" yWindow="660" windowWidth="13000" windowHeight="20520" xr2:uid="{94D6E9CA-AF84-3445-BCA6-352956A682AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1174">
   <si>
     <t>oodham</t>
   </si>
@@ -155,9 +155,6 @@
     <t>[ˈvɔː.pi.kuɖ̥]</t>
   </si>
   <si>
-    <t>Napt ’apec g ’e-vo’ikuḍ?::Did you make your bed?||Do: t o ha-ke:g c vo:pikuḍ?::Who’s going to clean the beds?</t>
-  </si>
-  <si>
     <t>audio/bed.mp3</t>
   </si>
   <si>
@@ -758,9 +755,6 @@
     <t>houses</t>
   </si>
   <si>
-    <t>Hebi ke:k g ’e-ki:?::Where is your house?||Go:k ki:k ’o cu:c ’im hab ha’ap.::There are two houses on the other side of there.</t>
-  </si>
-  <si>
     <t>audio/house.mp3</t>
   </si>
   <si>
@@ -839,9 +833,6 @@
     <t>spoons</t>
   </si>
   <si>
-    <t>Hugiñ g ’e-kusalkaj.::Eat it with your spoon.||Ha’i ’i ’u’ukai g kuksal.::Bring some spoons.</t>
-  </si>
-  <si>
     <t>audio/spoon.mp3</t>
   </si>
   <si>
@@ -929,15 +920,9 @@
     <t>sock</t>
   </si>
   <si>
-    <t>[ˈkɑɽ.siː.d̪ɔ]</t>
-  </si>
-  <si>
     <t>kakalsi:do</t>
   </si>
   <si>
-    <t>[ˈkɑ.kɑɽ.siː.d̪ɔ]</t>
-  </si>
-  <si>
     <t>socks</t>
   </si>
   <si>
@@ -1022,9 +1007,6 @@
     <t>legs</t>
   </si>
   <si>
-    <t>S-mohogid g ñ-kahi.::My leg itches.||No s-kokok g ’em-kakkio?::Do your legs hurt?</t>
-  </si>
-  <si>
     <t>audio/leg.mp3</t>
   </si>
   <si>
@@ -1493,9 +1475,6 @@
     <t>hearts</t>
   </si>
   <si>
-    <t>B ’o ma:s mo g ’i:bdag.::It looks like a heart.</t>
-  </si>
-  <si>
     <t>audio/heart.mp3</t>
   </si>
   <si>
@@ -1574,9 +1553,6 @@
     <t>necks</t>
   </si>
   <si>
-    <t>Hukṣ ’at g ñ-kusvo.::S/he scratched my neck.</t>
-  </si>
-  <si>
     <t>audio/neck.mp3</t>
   </si>
   <si>
@@ -1601,9 +1577,6 @@
     <t>chests</t>
   </si>
   <si>
-    <t>Si ñ-ṣoñhi ’an ñ-ba:ṣo ’an.::He sure punched my chest.</t>
-  </si>
-  <si>
     <t>audio/chest.mp3</t>
   </si>
   <si>
@@ -1709,9 +1682,6 @@
     <t>mice; earrings</t>
   </si>
   <si>
-    <t>Mu’i ’o ha’icu g nanhagio heg ’eḍa ’oidag.::There are lot of mice in that field.</t>
-  </si>
-  <si>
     <t>audio/mouse.mp3</t>
   </si>
   <si>
@@ -1919,9 +1889,6 @@
     <t>[t̪ɑt̪k]</t>
   </si>
   <si>
-    <t>Ha’i ’o ’am hi va hekaj g hovij tatk mat o ha-na:to g hoaha.::Some people use banana yucca root to make baskets.</t>
-  </si>
-  <si>
     <t>audio/root.mp3</t>
   </si>
   <si>
@@ -1997,9 +1964,6 @@
     <t>butts; bottoms</t>
   </si>
   <si>
-    <t>Si ṣoñhi g ñ-’at!::S/he sure hit me on the butt!</t>
-  </si>
-  <si>
     <t>audio/butt.mp3</t>
   </si>
   <si>
@@ -2093,9 +2057,6 @@
     <t>sticks</t>
   </si>
   <si>
-    <t>Ha’i ’i ’u’ukai g ’u’us.::Bring some sticks over here.</t>
-  </si>
-  <si>
     <t>audio/stick.mp3</t>
   </si>
   <si>
@@ -2174,9 +2135,6 @@
     <t>ankles</t>
   </si>
   <si>
-    <t>You’re going to hurt your ankle.</t>
-  </si>
-  <si>
     <t>audio/ankle.mp3</t>
   </si>
   <si>
@@ -2201,9 +2159,6 @@
     <t>names</t>
   </si>
   <si>
-    <t>Write your name down.</t>
-  </si>
-  <si>
     <t>audio/name.mp3</t>
   </si>
   <si>
@@ -2228,9 +2183,6 @@
     <t>soldiers</t>
   </si>
   <si>
-    <t>Is your child a soldier (in the army)?</t>
-  </si>
-  <si>
     <t>audio/soldier.mp3</t>
   </si>
   <si>
@@ -2255,9 +2207,6 @@
     <t>rattles</t>
   </si>
   <si>
-    <t>Do: t m-na:tojul ’i:da ṣavkuḍ?</t>
-  </si>
-  <si>
     <t>audio/rattle.mp3</t>
   </si>
   <si>
@@ -2378,9 +2327,6 @@
     <t>gophers</t>
   </si>
   <si>
-    <t>Hegi mo ’am si mu’i vapagt ’o hab ’e-’a’aga "cevo".::The thing that makes a bunch of holes in the groud is a "gopher".</t>
-  </si>
-  <si>
     <t>audio/gopher.mp3</t>
   </si>
   <si>
@@ -2459,9 +2405,6 @@
     <t>tortillas</t>
   </si>
   <si>
-    <t>Hema ñ-ma:k g cemait.::Pass me a tortilla.</t>
-  </si>
-  <si>
     <t>audio/tortilla.mp3</t>
   </si>
   <si>
@@ -3192,6 +3135,429 @@
   </si>
   <si>
     <t>ropes</t>
+  </si>
+  <si>
+    <t>[ˌkɑɽ.ˈsiː.d̪ɔ]</t>
+  </si>
+  <si>
+    <t>[ˌkɑ.kɑɽ.ˈsiː.d̪ɔ]</t>
+  </si>
+  <si>
+    <t>Napt ’apec g ’e-vo’ikuḍ?::Did you make your bed?||Do: t o ha-ke:gc g vo:pikuḍ?::Who’s going to clean the beds?</t>
+  </si>
+  <si>
+    <t>images/basket.jpg</t>
+  </si>
+  <si>
+    <t>kostal</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>[ˈkɔs.tɑɽ̥]</t>
+  </si>
+  <si>
+    <t>kokstal</t>
+  </si>
+  <si>
+    <t>[ˈkɔks.tɑɽ̥]</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>[hɔɑ]</t>
+  </si>
+  <si>
+    <t>hoha</t>
+  </si>
+  <si>
+    <t>[ˈhɔ.hɑ]</t>
+  </si>
+  <si>
+    <t>Tohono O'odham</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>ko:ba</t>
+  </si>
+  <si>
+    <t>[ˈkɔː.bɑ]</t>
+  </si>
+  <si>
+    <t>kokoba</t>
+  </si>
+  <si>
+    <t>cups</t>
+  </si>
+  <si>
+    <t>vaika</t>
+  </si>
+  <si>
+    <t>ditch</t>
+  </si>
+  <si>
+    <t>[ˈvɑi.kɑ]</t>
+  </si>
+  <si>
+    <t>vapaika</t>
+  </si>
+  <si>
+    <t>[ˈvɑ.pɑi.kɑ]</t>
+  </si>
+  <si>
+    <t>[ˈkɔ.kɔ.bɑ]</t>
+  </si>
+  <si>
+    <t>ditches</t>
+  </si>
+  <si>
+    <t>Hebi ke:k g m-ki:?::Where is your house?||Go:k ki:k ’o cu:c ’im hab ha’ap.::There are two houses on the other side of there.</t>
+  </si>
+  <si>
+    <t>Hugiñ g ’e-kusalkaj.::Eat it with your spoon.||Ha’i g ’i ’u’ukai g kuksal.::Bring some spoons.</t>
+  </si>
+  <si>
+    <t>S-mohogid g ñ-kahio.::My leg itches.||No s-kokok g ’em-kakkio?::Do your legs hurt?</t>
+  </si>
+  <si>
+    <t>B ’o ṣa ma:s mo g ’i:bdag.::It looks kind of like a heart.</t>
+  </si>
+  <si>
+    <t>Hegi mi:tol ’at ’an si hukṣ g ñ-kusvo.::That cat really scratched my neck.</t>
+  </si>
+  <si>
+    <t>Si ñ-ṣoñhi ’an ñ-ba:ṣo ’an.::He sure punched me in the chest.</t>
+  </si>
+  <si>
+    <t>Mu’i g nanhagio ’o ’am ha’icug heg ’eḍa ’oidag.::There are lots of mice in that field.</t>
+  </si>
+  <si>
+    <t>Ha’i ’o hi va hekaj g hovij tatk mat o ha-na:to g hoaha.::Some people use banana yucca root to make baskets.</t>
+  </si>
+  <si>
+    <t>Si ’at ṣoñhi g ñ-’at!::S/he sure hit me on the butt!</t>
+  </si>
+  <si>
+    <t>Ha’i g ’i ’u’ukai g ’u’us.::Bring some sticks over here.</t>
+  </si>
+  <si>
+    <t>Vapt o va s-ko’okam ju: g ’e-cekva.::You’re going to hurt your ankle.</t>
+  </si>
+  <si>
+    <t>No ḍ ge ṣondal g m-maḍ?::Is your child a soldier (in the army)?</t>
+  </si>
+  <si>
+    <t>Do: t m-na:tojul ’i:da ṣavkuḍ?::Who made you this rattle?</t>
+  </si>
+  <si>
+    <t>’An g ’o’ohon g ’e-ce:gig.::Write your name down.</t>
+  </si>
+  <si>
+    <t>Hegi ha’icu doakam mo ’an si mu’i va:pagt ’o hab ’e-’a’aga "cevo".::The animal that makes a bunch of holes in the groud is called "gopher".</t>
+  </si>
+  <si>
+    <t>Hema ñ-ma:k g cemait.::Give me a tortilla.</t>
+  </si>
+  <si>
+    <t>audio/examples/isthebabycrying.mp3||audio/examples/whostakingcareofthechildren.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/mygreatgrandmamadethisbasket.mp3||audio/examples/imgoingtosellsomeofthebaskets.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/didyoumakeyourbed.mp3||audio/examples/whosgoingtocleanthebeds.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/bringmethatblankettocoverwith.mp3||audio/examples/whatareyougoingtomakewiththesepiecesofcloth.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/puthisboxback.mp3||audio/examples/goaheadandopenthoseboxes.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/whoisthatboy.mp3||audio/examples/thoseboysaregoingtoplaykickball.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/languageiswhatexistsinourbrain.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/didyoufeedthecat.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/bringthatchair.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thatsmydog.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/didyouironmydress.mp3||audio/examples/weregoingtobuysomenewdresses.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/donttouchyoureye.mp3||audio/examples/myeyesitch.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/doyouknowthatgirl.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/brushthebabyshair.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/illturnmylighton.mp3||audio/examples/thelightsarerealbright.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/doyouseethatlight.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/takeyourmedicine.mp3||audio/examples/thepharmacist.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/imgoingtochewonsomemesquitebeans.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thetreeistall.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/imgoingtowashmypants.mp3||audio/examples/hangupthepairsofpants.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/signyournameonthispaper.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/mypillowsjustflat.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/throwarock.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/areyousick.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/closethewindow.mp3||audio/examples/thewindowsarekindofdirty.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/whereisyourhouse.mp3||audio/examples/therearetwohousesontheothersideofthere.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/useaplate.mp3||audio/examples/washtheplatesgood.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/givemeafork.mp3||audio/examples/therearenoforksleft.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/eatitwithyourspoon.mp3||audio/examples/bringsomespoons.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/closethedoor.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/putthisshirton.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/hangthatshirtup.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/putyoursocksaway.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/lookatmyshoes.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/goopenthefence.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/mylegitches.mp3||audio/examples/doyourlegshurt.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/myfeethurt.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/setthecuponthetable.mp3||audio/examples/wipthetablesdown.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/didyouleaveyourmoneyonthetable.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/imgoingtousethispottomakebeans.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thetowelsarestillwet.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/wipethebabysfacewithyourhandkerchief.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/herheadscarfispretty.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/mynecklaceisgold.mp3</t>
+  </si>
+  <si>
+    <t>taudio/examples/thecowboyhasaredneckerchief.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thestarsarereallyshining.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/helivesontopofthemountain.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/whereistheroad.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/dontusethatknife.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/isthisyourhorse.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/isthecarrunning.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/imgoingtowashmycar.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/readthebook.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/itlookskindoflikeaheart.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/mynoseitches.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/ihaveanearache.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thatcatreallyscratchedmyneck.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/hesurepunchedmeintheches.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/doyourshouldershurt.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/ihurtmyknee.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/ilostmyring.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/therearelotsofmiceinthatfield.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/putyourjacketon.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/doyouhaveapencil.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thecloudsaregray.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/theroadrunnerranoverthere.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/hangupthebedsheet.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/whatdoyouguysplantinthatfield.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/didyouburnyourtongue.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/brushyourteeth.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/somepeopleusebananayuccaroottomakebaskets.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/mystomachhurts.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/wipeyourcheek.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/hesurehitmeonthebutt.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thatlizardiscrawlingonthefence.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thisdresshasmanybuttons.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/wheredidyouputmyboots.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/bringsomesticksoverhere.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thispomegranateisreallysweet.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/makesomeadobebricks.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/mybackitches.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/youregoingtohurtyourankle.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/writeyournamedown.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/isyourchildasoldier.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/whomadeyouthisrattle.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/howmanybonesdowehaveinourbody.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thishardthinginourheadisaskull.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/haveyouheverseenamountainlion.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thebobcatsarefriendly.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/theanimalthatmakesalotofholesinthegroundiscalledgopher.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/isthisyourfriend.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/theneedleissharp.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/givemeatortilla.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/didyoubuythattruck.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/whereistheschoollocated.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/thosekidsareplayingball.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/drawalinehere.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/hangupthesaddle.mp3</t>
   </si>
 </sst>
 </file>
@@ -3578,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C70B7F-39B1-CF49-AFC9-B05A2423C135}">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="K92" zoomScale="113" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3670,6 +4036,9 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>1043</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3678,6 +4047,9 @@
       </c>
       <c r="L2" t="s">
         <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3717,6 +4089,12 @@
       <c r="L3" t="s">
         <v>33</v>
       </c>
+      <c r="M3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3743,22 +4121,28 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>1043</v>
+      </c>
       <c r="J4" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
+      <c r="N4" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -3767,33 +4151,39 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="L5" t="s">
-        <v>50</v>
+      <c r="N5" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -3802,33 +4192,39 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" t="s">
         <v>57</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>58</v>
       </c>
-      <c r="L6" t="s">
-        <v>59</v>
+      <c r="N6" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -3837,33 +4233,39 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" t="s">
         <v>66</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" t="s">
-        <v>68</v>
+      <c r="N7" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -3872,33 +4274,39 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>73</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" t="s">
         <v>75</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
+      <c r="N8" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -3907,36 +4315,39 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>81</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
         <v>84</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>85</v>
       </c>
-      <c r="L9" t="s">
-        <v>86</v>
+      <c r="N9" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -3945,36 +4356,39 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>81</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>82</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>89</v>
       </c>
-      <c r="L10" t="s">
-        <v>90</v>
+      <c r="N10" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
         <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -3983,33 +4397,39 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" t="s">
         <v>96</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" t="s">
-        <v>98</v>
+      <c r="N11" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
         <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -4018,33 +4438,39 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
         <v>101</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>102</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>103</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" t="s">
         <v>105</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>106</v>
       </c>
-      <c r="L12" t="s">
-        <v>107</v>
+      <c r="N12" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -4053,33 +4479,39 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
         <v>110</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>111</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>112</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" t="s">
         <v>114</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>115</v>
       </c>
-      <c r="L13" t="s">
-        <v>116</v>
+      <c r="N13" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
         <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -4088,33 +4520,39 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>120</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>121</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" t="s">
         <v>123</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>124</v>
       </c>
-      <c r="L14" t="s">
-        <v>125</v>
+      <c r="N14" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
         <v>126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -4123,33 +4561,39 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
         <v>128</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>129</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>130</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" t="s">
         <v>132</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>133</v>
       </c>
-      <c r="L15" t="s">
-        <v>134</v>
+      <c r="N15" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -4158,33 +4602,39 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
         <v>137</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>138</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>139</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" t="s">
         <v>141</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>142</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>144</v>
-      </c>
-      <c r="B17" t="s">
-        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -4193,53 +4643,65 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
         <v>146</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>147</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>148</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" t="s">
         <v>150</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>151</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>153</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>154</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="I18" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" t="s">
         <v>156</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>158</v>
-      </c>
-      <c r="B19" t="s">
-        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -4248,59 +4710,68 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
         <v>160</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>161</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>162</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" t="s">
         <v>164</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>165</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>167</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
         <v>168</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>169</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
         <v>170</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>171</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" t="s">
-        <v>174</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -4309,33 +4780,39 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" t="s">
         <v>175</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" t="s">
         <v>177</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" t="s">
         <v>179</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>180</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>182</v>
-      </c>
-      <c r="B22" t="s">
-        <v>183</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -4344,33 +4821,39 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" t="s">
         <v>184</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>185</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>186</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" t="s">
         <v>188</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>189</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>191</v>
-      </c>
-      <c r="B23" t="s">
-        <v>192</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -4379,33 +4862,39 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" t="s">
         <v>193</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>194</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>195</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" t="s">
         <v>197</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>198</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>201</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -4414,33 +4903,39 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" t="s">
         <v>202</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>203</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>204</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" t="s">
         <v>206</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>207</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>209</v>
-      </c>
-      <c r="B25" t="s">
-        <v>210</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -4449,56 +4944,68 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" t="s">
         <v>211</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>212</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>213</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" t="s">
         <v>215</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>216</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>218</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>219</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>220</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" t="s">
         <v>222</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>223</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>225</v>
-      </c>
-      <c r="B27" t="s">
-        <v>226</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -4507,33 +5014,39 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>228</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>229</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" t="s">
         <v>231</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>232</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>234</v>
-      </c>
-      <c r="B28" t="s">
-        <v>235</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -4542,33 +5055,39 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" t="s">
         <v>236</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>237</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>238</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K28" t="s">
         <v>239</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" t="s">
         <v>240</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>241</v>
       </c>
-      <c r="L28" t="s">
+      <c r="B29" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" t="s">
-        <v>244</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -4577,33 +5096,39 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
         <v>245</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>246</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>248</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" t="s">
         <v>249</v>
       </c>
-      <c r="K29" t="s">
+      <c r="N29" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>250</v>
       </c>
-      <c r="L29" t="s">
+      <c r="B30" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" t="s">
-        <v>253</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -4612,33 +5137,39 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
         <v>254</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>255</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>257</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="L30" t="s">
         <v>258</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>259</v>
       </c>
-      <c r="L30" t="s">
+      <c r="B31" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B31" t="s">
-        <v>262</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -4647,33 +5178,39 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
         <v>263</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>264</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K31" t="s">
         <v>265</v>
       </c>
-      <c r="H31" t="s">
+      <c r="L31" t="s">
         <v>266</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="N31" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>267</v>
       </c>
-      <c r="K31" t="s">
+      <c r="B32" t="s">
         <v>268</v>
-      </c>
-      <c r="L31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>270</v>
-      </c>
-      <c r="B32" t="s">
-        <v>271</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -4682,33 +5219,39 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>274</v>
       </c>
-      <c r="H32" t="s">
+      <c r="L32" t="s">
         <v>275</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="N32" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>276</v>
       </c>
-      <c r="K32" t="s">
+      <c r="B33" t="s">
         <v>277</v>
-      </c>
-      <c r="L32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" t="s">
-        <v>280</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -4717,33 +5260,39 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H33" t="s">
-        <v>284</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s">
+        <v>291</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>285</v>
       </c>
-      <c r="K33" t="s">
-        <v>293</v>
-      </c>
-      <c r="L33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>288</v>
-      </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -4752,33 +5301,39 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34" t="s">
+        <v>281</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F34" t="s">
-        <v>290</v>
-      </c>
-      <c r="G34" t="s">
-        <v>291</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
         <v>284</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="N34" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>292</v>
       </c>
-      <c r="K34" t="s">
-        <v>286</v>
-      </c>
-      <c r="L34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>295</v>
-      </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -4787,33 +5342,39 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
         <v>297</v>
       </c>
-      <c r="F35" t="s">
+      <c r="L35" t="s">
         <v>298</v>
       </c>
-      <c r="G35" t="s">
+      <c r="N35" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>299</v>
       </c>
-      <c r="H35" t="s">
+      <c r="B36" t="s">
         <v>300</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K35" t="s">
-        <v>302</v>
-      </c>
-      <c r="L35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>304</v>
-      </c>
-      <c r="B36" t="s">
-        <v>305</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -4822,33 +5383,39 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" t="s">
+        <v>304</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
         <v>306</v>
       </c>
-      <c r="F36" t="s">
+      <c r="L36" t="s">
         <v>307</v>
       </c>
-      <c r="G36" t="s">
+      <c r="N36" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>308</v>
       </c>
-      <c r="H36" t="s">
+      <c r="B37" t="s">
         <v>309</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K36" t="s">
-        <v>311</v>
-      </c>
-      <c r="L36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>313</v>
-      </c>
-      <c r="B37" t="s">
-        <v>314</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -4857,33 +5424,39 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" t="s">
+        <v>313</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
         <v>315</v>
       </c>
-      <c r="F37" t="s">
+      <c r="L37" t="s">
         <v>316</v>
       </c>
-      <c r="G37" t="s">
+      <c r="N37" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>317</v>
       </c>
-      <c r="H37" t="s">
+      <c r="B38" t="s">
         <v>318</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K37" t="s">
-        <v>320</v>
-      </c>
-      <c r="L37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>322</v>
-      </c>
-      <c r="B38" t="s">
-        <v>323</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -4892,33 +5465,39 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>321</v>
+      </c>
+      <c r="H38" t="s">
+        <v>322</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
         <v>324</v>
       </c>
-      <c r="F38" t="s">
+      <c r="N38" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>325</v>
       </c>
-      <c r="G38" t="s">
+      <c r="B39" t="s">
         <v>326</v>
-      </c>
-      <c r="H38" t="s">
-        <v>327</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K38" t="s">
-        <v>329</v>
-      </c>
-      <c r="L38" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>331</v>
-      </c>
-      <c r="B39" t="s">
-        <v>332</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -4927,33 +5506,39 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
         <v>333</v>
       </c>
-      <c r="F39" t="s">
+      <c r="N39" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>334</v>
       </c>
-      <c r="G39" t="s">
+      <c r="B40" t="s">
         <v>335</v>
-      </c>
-      <c r="H39" t="s">
-        <v>336</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K39" t="s">
-        <v>338</v>
-      </c>
-      <c r="L39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>340</v>
-      </c>
-      <c r="B40" t="s">
-        <v>341</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -4962,33 +5547,39 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
+        <v>336</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>338</v>
+      </c>
+      <c r="H40" t="s">
+        <v>339</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s">
         <v>342</v>
       </c>
-      <c r="F40" t="s">
+      <c r="N40" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>343</v>
       </c>
-      <c r="G40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H40" t="s">
-        <v>345</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K40" t="s">
-        <v>347</v>
-      </c>
-      <c r="L40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>349</v>
-      </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -4997,33 +5588,39 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>346</v>
+      </c>
+      <c r="H41" t="s">
+        <v>339</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>350</v>
       </c>
-      <c r="F41" t="s">
+      <c r="B42" t="s">
         <v>351</v>
-      </c>
-      <c r="G41" t="s">
-        <v>352</v>
-      </c>
-      <c r="H41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K41" t="s">
-        <v>354</v>
-      </c>
-      <c r="L41" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>356</v>
-      </c>
-      <c r="B42" t="s">
-        <v>357</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -5032,33 +5629,39 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
+        <v>352</v>
+      </c>
+      <c r="F42" t="s">
+        <v>353</v>
+      </c>
+      <c r="G42" t="s">
+        <v>354</v>
+      </c>
+      <c r="H42" t="s">
+        <v>355</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
         <v>358</v>
       </c>
-      <c r="F42" t="s">
+      <c r="N42" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>359</v>
       </c>
-      <c r="G42" t="s">
+      <c r="B43" t="s">
         <v>360</v>
-      </c>
-      <c r="H42" t="s">
-        <v>361</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K42" t="s">
-        <v>363</v>
-      </c>
-      <c r="L42" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B43" t="s">
-        <v>366</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -5067,33 +5670,39 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
+        <v>361</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>363</v>
+      </c>
+      <c r="H43" t="s">
+        <v>364</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
         <v>367</v>
       </c>
-      <c r="F43" t="s">
+      <c r="N43" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>368</v>
       </c>
-      <c r="G43" t="s">
+      <c r="B44" t="s">
         <v>369</v>
-      </c>
-      <c r="H43" t="s">
-        <v>370</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K43" t="s">
-        <v>372</v>
-      </c>
-      <c r="L43" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>374</v>
-      </c>
-      <c r="B44" t="s">
-        <v>375</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -5102,33 +5711,39 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" t="s">
+        <v>372</v>
+      </c>
+      <c r="H44" t="s">
+        <v>373</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>375</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>376</v>
       </c>
-      <c r="F44" t="s">
+      <c r="B45" t="s">
         <v>377</v>
-      </c>
-      <c r="G44" t="s">
-        <v>378</v>
-      </c>
-      <c r="H44" t="s">
-        <v>379</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K44" t="s">
-        <v>381</v>
-      </c>
-      <c r="L44" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>382</v>
-      </c>
-      <c r="B45" t="s">
-        <v>383</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -5137,33 +5752,39 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
+        <v>378</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45" t="s">
+        <v>380</v>
+      </c>
+      <c r="H45" t="s">
+        <v>381</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
         <v>384</v>
       </c>
-      <c r="F45" t="s">
+      <c r="N45" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>385</v>
       </c>
-      <c r="G45" t="s">
+      <c r="B46" t="s">
         <v>386</v>
-      </c>
-      <c r="H45" t="s">
-        <v>387</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K45" t="s">
-        <v>389</v>
-      </c>
-      <c r="L45" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>391</v>
-      </c>
-      <c r="B46" t="s">
-        <v>392</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -5172,33 +5793,39 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
+        <v>387</v>
+      </c>
+      <c r="F46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" t="s">
+        <v>389</v>
+      </c>
+      <c r="H46" t="s">
+        <v>390</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
         <v>393</v>
       </c>
-      <c r="F46" t="s">
+      <c r="N46" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>394</v>
       </c>
-      <c r="G46" t="s">
+      <c r="B47" t="s">
         <v>395</v>
-      </c>
-      <c r="H46" t="s">
-        <v>396</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="K46" t="s">
-        <v>398</v>
-      </c>
-      <c r="L46" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>400</v>
-      </c>
-      <c r="B47" t="s">
-        <v>401</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -5207,33 +5834,39 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>398</v>
+      </c>
+      <c r="H47" t="s">
+        <v>399</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K47" t="s">
+        <v>401</v>
+      </c>
+      <c r="L47" t="s">
         <v>402</v>
       </c>
-      <c r="F47" t="s">
+      <c r="N47" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>403</v>
       </c>
-      <c r="G47" t="s">
+      <c r="B48" t="s">
         <v>404</v>
-      </c>
-      <c r="H47" t="s">
-        <v>405</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K47" t="s">
-        <v>407</v>
-      </c>
-      <c r="L47" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>409</v>
-      </c>
-      <c r="B48" t="s">
-        <v>410</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -5242,33 +5875,39 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
+        <v>405</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>407</v>
+      </c>
+      <c r="H48" t="s">
+        <v>408</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K48" t="s">
+        <v>410</v>
+      </c>
+      <c r="L48" t="s">
         <v>411</v>
       </c>
-      <c r="F48" t="s">
+      <c r="N48" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>412</v>
       </c>
-      <c r="G48" t="s">
+      <c r="B49" t="s">
         <v>413</v>
-      </c>
-      <c r="H48" t="s">
-        <v>414</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K48" t="s">
-        <v>416</v>
-      </c>
-      <c r="L48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>418</v>
-      </c>
-      <c r="B49" t="s">
-        <v>419</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -5277,33 +5916,39 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
+        <v>414</v>
+      </c>
+      <c r="F49" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" t="s">
+        <v>416</v>
+      </c>
+      <c r="H49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K49" t="s">
+        <v>419</v>
+      </c>
+      <c r="L49" t="s">
         <v>420</v>
       </c>
-      <c r="F49" t="s">
+      <c r="N49" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>421</v>
       </c>
-      <c r="G49" t="s">
+      <c r="B50" t="s">
         <v>422</v>
-      </c>
-      <c r="H49" t="s">
-        <v>423</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K49" t="s">
-        <v>425</v>
-      </c>
-      <c r="L49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>427</v>
-      </c>
-      <c r="B50" t="s">
-        <v>428</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -5312,33 +5957,39 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
+        <v>423</v>
+      </c>
+      <c r="F50" t="s">
+        <v>424</v>
+      </c>
+      <c r="G50" t="s">
+        <v>425</v>
+      </c>
+      <c r="H50" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s">
         <v>429</v>
       </c>
-      <c r="F50" t="s">
+      <c r="N50" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>430</v>
       </c>
-      <c r="G50" t="s">
+      <c r="B51" t="s">
         <v>431</v>
-      </c>
-      <c r="H50" t="s">
-        <v>432</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K50" t="s">
-        <v>434</v>
-      </c>
-      <c r="L50" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>436</v>
-      </c>
-      <c r="B51" t="s">
-        <v>437</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -5347,33 +5998,39 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
+        <v>432</v>
+      </c>
+      <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" t="s">
+        <v>434</v>
+      </c>
+      <c r="H51" t="s">
+        <v>435</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K51" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s">
         <v>438</v>
       </c>
-      <c r="F51" t="s">
+      <c r="N51" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>439</v>
       </c>
-      <c r="G51" t="s">
+      <c r="B52" t="s">
         <v>440</v>
-      </c>
-      <c r="H51" t="s">
-        <v>441</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K51" t="s">
-        <v>443</v>
-      </c>
-      <c r="L51" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>445</v>
-      </c>
-      <c r="B52" t="s">
-        <v>446</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -5382,33 +6039,39 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
+        <v>441</v>
+      </c>
+      <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>443</v>
+      </c>
+      <c r="H52" t="s">
+        <v>444</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K52" t="s">
+        <v>446</v>
+      </c>
+      <c r="L52" t="s">
         <v>447</v>
       </c>
-      <c r="F52" t="s">
+      <c r="N52" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>448</v>
       </c>
-      <c r="G52" t="s">
+      <c r="B53" t="s">
         <v>449</v>
-      </c>
-      <c r="H52" t="s">
-        <v>450</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K52" t="s">
-        <v>452</v>
-      </c>
-      <c r="L52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>454</v>
-      </c>
-      <c r="B53" t="s">
-        <v>455</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -5417,33 +6080,39 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
+        <v>450</v>
+      </c>
+      <c r="F53" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" t="s">
+        <v>452</v>
+      </c>
+      <c r="H53" t="s">
+        <v>453</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K53" t="s">
+        <v>455</v>
+      </c>
+      <c r="L53" t="s">
         <v>456</v>
       </c>
-      <c r="F53" t="s">
+      <c r="N53" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>457</v>
       </c>
-      <c r="G53" t="s">
-        <v>458</v>
-      </c>
-      <c r="H53" t="s">
-        <v>459</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="K53" t="s">
-        <v>461</v>
-      </c>
-      <c r="L53" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>463</v>
-      </c>
       <c r="B54" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -5452,33 +6121,39 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
+        <v>458</v>
+      </c>
+      <c r="F54" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" t="s">
+        <v>460</v>
+      </c>
+      <c r="H54" t="s">
+        <v>453</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>463</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>464</v>
       </c>
-      <c r="F54" t="s">
+      <c r="B55" t="s">
         <v>465</v>
-      </c>
-      <c r="G54" t="s">
-        <v>466</v>
-      </c>
-      <c r="H54" t="s">
-        <v>459</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="K54" t="s">
-        <v>468</v>
-      </c>
-      <c r="L54" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>470</v>
-      </c>
-      <c r="B55" t="s">
-        <v>471</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -5487,33 +6162,39 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
+        <v>466</v>
+      </c>
+      <c r="F55" t="s">
+        <v>467</v>
+      </c>
+      <c r="G55" t="s">
+        <v>468</v>
+      </c>
+      <c r="H55" t="s">
+        <v>469</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K55" t="s">
+        <v>471</v>
+      </c>
+      <c r="L55" t="s">
         <v>472</v>
       </c>
-      <c r="F55" t="s">
+      <c r="N55" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>473</v>
       </c>
-      <c r="G55" t="s">
+      <c r="B56" t="s">
         <v>474</v>
-      </c>
-      <c r="H55" t="s">
-        <v>475</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K55" t="s">
-        <v>477</v>
-      </c>
-      <c r="L55" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>479</v>
-      </c>
-      <c r="B56" t="s">
-        <v>480</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -5522,33 +6203,39 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
+        <v>475</v>
+      </c>
+      <c r="F56" t="s">
+        <v>476</v>
+      </c>
+      <c r="G56" t="s">
+        <v>477</v>
+      </c>
+      <c r="H56" t="s">
+        <v>478</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K56" t="s">
+        <v>479</v>
+      </c>
+      <c r="L56" t="s">
+        <v>480</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>481</v>
       </c>
-      <c r="F56" t="s">
+      <c r="B57" t="s">
         <v>482</v>
-      </c>
-      <c r="G56" t="s">
-        <v>483</v>
-      </c>
-      <c r="H56" t="s">
-        <v>484</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K56" t="s">
-        <v>486</v>
-      </c>
-      <c r="L56" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>488</v>
-      </c>
-      <c r="B57" t="s">
-        <v>489</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -5557,33 +6244,39 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
+        <v>483</v>
+      </c>
+      <c r="F57" t="s">
+        <v>484</v>
+      </c>
+      <c r="G57" t="s">
+        <v>485</v>
+      </c>
+      <c r="H57" t="s">
+        <v>486</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K57" t="s">
+        <v>488</v>
+      </c>
+      <c r="L57" t="s">
+        <v>489</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>490</v>
       </c>
-      <c r="F57" t="s">
+      <c r="B58" t="s">
         <v>491</v>
-      </c>
-      <c r="G57" t="s">
-        <v>492</v>
-      </c>
-      <c r="H57" t="s">
-        <v>493</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K57" t="s">
-        <v>495</v>
-      </c>
-      <c r="L57" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>497</v>
-      </c>
-      <c r="B58" t="s">
-        <v>498</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -5592,33 +6285,39 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
+        <v>492</v>
+      </c>
+      <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58" t="s">
+        <v>494</v>
+      </c>
+      <c r="H58" t="s">
+        <v>495</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K58" t="s">
+        <v>497</v>
+      </c>
+      <c r="L58" t="s">
+        <v>498</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>499</v>
       </c>
-      <c r="F58" t="s">
+      <c r="B59" t="s">
         <v>500</v>
-      </c>
-      <c r="G58" t="s">
-        <v>501</v>
-      </c>
-      <c r="H58" t="s">
-        <v>502</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K58" t="s">
-        <v>504</v>
-      </c>
-      <c r="L58" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>506</v>
-      </c>
-      <c r="B59" t="s">
-        <v>507</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -5627,33 +6326,39 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>501</v>
+      </c>
+      <c r="F59" t="s">
+        <v>502</v>
+      </c>
+      <c r="G59" t="s">
+        <v>503</v>
+      </c>
+      <c r="H59" t="s">
+        <v>504</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K59" t="s">
+        <v>505</v>
+      </c>
+      <c r="L59" t="s">
+        <v>506</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>507</v>
+      </c>
+      <c r="B60" t="s">
         <v>508</v>
-      </c>
-      <c r="F59" t="s">
-        <v>509</v>
-      </c>
-      <c r="G59" t="s">
-        <v>510</v>
-      </c>
-      <c r="H59" t="s">
-        <v>511</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="K59" t="s">
-        <v>513</v>
-      </c>
-      <c r="L59" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>515</v>
-      </c>
-      <c r="B60" t="s">
-        <v>516</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -5662,33 +6367,39 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F60" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G60" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H60" t="s">
-        <v>520</v>
+        <v>512</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>521</v>
+        <v>1065</v>
       </c>
       <c r="K60" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="L60" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -5697,33 +6408,39 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F61" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G61" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="H61" t="s">
-        <v>529</v>
+        <v>520</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="K61" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="L61" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B62" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -5732,33 +6449,39 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F62" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G62" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H62" t="s">
-        <v>538</v>
+        <v>529</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="K62" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="L62" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B63" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -5767,33 +6490,39 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F63" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="H63" t="s">
-        <v>547</v>
+        <v>538</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K63" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="L63" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B64" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -5802,33 +6531,39 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F64" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G64" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H64" t="s">
-        <v>556</v>
+        <v>547</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>557</v>
+        <v>1066</v>
       </c>
       <c r="K64" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="L64" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B65" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -5837,33 +6572,39 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F65" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="G65" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H65" t="s">
-        <v>565</v>
+        <v>555</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K65" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L65" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="N65" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B66" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -5872,53 +6613,65 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
+        <v>561</v>
+      </c>
+      <c r="F66" t="s">
+        <v>562</v>
+      </c>
+      <c r="G66" t="s">
+        <v>563</v>
+      </c>
+      <c r="H66" t="s">
+        <v>564</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K66" t="s">
+        <v>566</v>
+      </c>
+      <c r="L66" t="s">
+        <v>567</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>568</v>
+      </c>
+      <c r="B67" t="s">
+        <v>569</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>570</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F66" t="s">
+      <c r="K67" t="s">
         <v>572</v>
       </c>
-      <c r="G66" t="s">
+      <c r="N67" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>573</v>
       </c>
-      <c r="H66" t="s">
+      <c r="B68" t="s">
         <v>574</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="K66" t="s">
-        <v>576</v>
-      </c>
-      <c r="L66" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>578</v>
-      </c>
-      <c r="B67" t="s">
-        <v>579</v>
-      </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" t="s">
-        <v>580</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="K67" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>583</v>
-      </c>
-      <c r="B68" t="s">
-        <v>584</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -5927,33 +6680,39 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F68" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G68" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H68" t="s">
-        <v>588</v>
+        <v>578</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="K68" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L68" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B69" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -5962,33 +6721,39 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F69" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="G69" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H69" t="s">
-        <v>597</v>
+        <v>587</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="K69" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="L69" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B70" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -5997,33 +6762,39 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F70" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G70" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="H70" t="s">
-        <v>606</v>
+        <v>596</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="K70" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="L70" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B71" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -6032,77 +6803,95 @@
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F71" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G71" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H71" t="s">
-        <v>615</v>
+        <v>605</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K71" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="L71" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B72" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="G72" t="str">
         <f>+G79</f>
         <v>[ˈvɔː.d̪ɑ]</v>
       </c>
+      <c r="I72" s="3" t="s">
+        <v>1043</v>
+      </c>
       <c r="J72" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="K72" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+      <c r="N72" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B73" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>626</v>
+        <v>616</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>627</v>
+        <v>1067</v>
       </c>
       <c r="K73" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B74" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -6111,33 +6900,39 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F74" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G74" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="H74" t="s">
-        <v>634</v>
+        <v>623</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="K74" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="L74" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B75" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -6146,33 +6941,39 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="F75" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="G75" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="H75" t="s">
-        <v>643</v>
+        <v>632</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="K75" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="L75" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B76" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -6181,33 +6982,39 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F76" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G76" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="H76" t="s">
-        <v>652</v>
+        <v>641</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>653</v>
+        <v>1068</v>
       </c>
       <c r="K76" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="L76" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B77" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -6216,33 +7023,39 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="F77" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="G77" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H77" t="s">
-        <v>660</v>
+        <v>648</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="K77" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="L77" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B78" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -6251,33 +7064,39 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F78" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="G78" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="H78" t="s">
-        <v>668</v>
+        <v>656</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="K78" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="L78" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B79" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -6286,33 +7105,39 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F79" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="G79" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="H79" t="s">
-        <v>676</v>
+        <v>664</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="K79" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="L79" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B80" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -6321,70 +7146,88 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
+        <v>670</v>
+      </c>
+      <c r="F80" t="s">
+        <v>671</v>
+      </c>
+      <c r="G80" t="s">
+        <v>670</v>
+      </c>
+      <c r="H80" t="s">
+        <v>672</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K80" t="s">
+        <v>673</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>674</v>
+      </c>
+      <c r="B81" t="s">
+        <v>675</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>676</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="K81" t="s">
+        <v>678</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>679</v>
+      </c>
+      <c r="B82" t="s">
+        <v>680</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>681</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F80" t="s">
+      <c r="K82" t="s">
         <v>683</v>
       </c>
-      <c r="G80" t="s">
-        <v>682</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="N82" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>684</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="B83" t="s">
         <v>685</v>
-      </c>
-      <c r="K80" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>687</v>
-      </c>
-      <c r="B81" t="s">
-        <v>688</v>
-      </c>
-      <c r="C81" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" t="s">
-        <v>689</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="K81" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>692</v>
-      </c>
-      <c r="B82" t="s">
-        <v>693</v>
-      </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" t="s">
-        <v>694</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="K82" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>697</v>
-      </c>
-      <c r="B83" t="s">
-        <v>698</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -6393,33 +7236,39 @@
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F83" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G83" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="H83" t="s">
-        <v>702</v>
+        <v>689</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="K83" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="L83" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B84" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -6428,33 +7277,39 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="F84" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="G84" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="H84" t="s">
-        <v>711</v>
+        <v>698</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>712</v>
+        <v>1070</v>
       </c>
       <c r="K84" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="L84" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="B85" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -6463,33 +7318,39 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F85" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="G85" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H85" t="s">
-        <v>720</v>
+        <v>706</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>721</v>
+        <v>1073</v>
       </c>
       <c r="K85" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="L85" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+      <c r="N85" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="B86" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
@@ -6498,33 +7359,39 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="F86" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G86" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="H86" t="s">
-        <v>729</v>
+        <v>714</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>730</v>
+        <v>1071</v>
       </c>
       <c r="K86" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="L86" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="B87" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -6533,53 +7400,65 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F87" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G87" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="H87" t="s">
-        <v>738</v>
+        <v>722</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>739</v>
+        <v>1072</v>
       </c>
       <c r="K87" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="L87" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="B88" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>744</v>
+        <v>727</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="K88" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="B89" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -6588,33 +7467,39 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="F89" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="G89" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="H89" t="s">
-        <v>752</v>
+        <v>735</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="K89" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="L89" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="B90" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -6623,33 +7508,39 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="F90" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="G90" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="H90" t="s">
-        <v>761</v>
+        <v>744</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="K90" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="L90" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="B91" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -6658,33 +7549,39 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="F91" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="G91" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="H91" t="s">
-        <v>770</v>
+        <v>753</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="K91" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="L91" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="B92" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -6693,33 +7590,39 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="F92" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="G92" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="H92" t="s">
-        <v>779</v>
+        <v>762</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>780</v>
+        <v>1074</v>
       </c>
       <c r="K92" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="L92" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="B93" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -6728,33 +7631,39 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="F93" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="G93" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="H93" t="s">
-        <v>788</v>
+        <v>770</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="K93" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="L93" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="B94" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -6763,33 +7672,39 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="F94" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="G94" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="H94" t="s">
-        <v>797</v>
+        <v>779</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="K94" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="L94" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="B95" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -6798,33 +7713,39 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="F95" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="G95" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="H95" t="s">
-        <v>806</v>
+        <v>788</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>807</v>
+        <v>1075</v>
       </c>
       <c r="K95" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="L95" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>790</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="B96" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -6833,33 +7754,39 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="F96" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="G96" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="H96" t="s">
-        <v>815</v>
+        <v>796</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="K96" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="L96" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="B97" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -6868,67 +7795,79 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="F97" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="G97" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="H97" t="s">
-        <v>824</v>
+        <v>805</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="K97" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="L97" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="B98" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>830</v>
+        <v>811</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="K98" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="B99" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>834</v>
+        <v>815</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="K99" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="B100" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -6937,47 +7876,53 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="F100" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="G100" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="H100" t="s">
-        <v>841</v>
+        <v>822</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="K100" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="L100" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="B101" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>846</v>
+        <v>827</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="K101" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="B102" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -6986,30 +7931,33 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="F102" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="G102" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="H102" t="s">
-        <v>849</v>
+        <v>830</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="K102" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="L102" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="B103" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -7018,27 +7966,33 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="F103" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="G103" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="H103" t="s">
-        <v>859</v>
+        <v>840</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>841</v>
+      </c>
+      <c r="N103" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="B104" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="C104" t="s">
         <v>16</v>
@@ -7047,41 +8001,50 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="F104" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="G104" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="H104" t="s">
-        <v>865</v>
+        <v>846</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+      <c r="N104" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="B105" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="C105" t="s">
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="B106" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -7090,24 +8053,27 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="F106" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="G106" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="H106" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="B107" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="C107" t="s">
         <v>16</v>
@@ -7116,27 +8082,33 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="F107" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="G107" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="H107" t="s">
-        <v>882</v>
+        <v>863</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+      <c r="N107" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="B108" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
@@ -7145,24 +8117,27 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="F108" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="G108" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="H108" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="B109" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -7171,24 +8146,27 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="F109" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="G109" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="H109" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="B110" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -7197,24 +8175,27 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="F110" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="G110" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="H110" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+        <v>882</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="B111" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
@@ -7223,24 +8204,27 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="F111" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="G111" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="H111" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="B112" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
@@ -7249,24 +8233,27 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="F112" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="G112" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="H112" t="s">
-        <v>913</v>
+        <v>894</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="B113" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
@@ -7275,16 +8262,16 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="F113" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="G113" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="H113" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="I113" t="s">
         <v>30</v>
@@ -7292,10 +8279,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="B114" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
@@ -7304,24 +8291,27 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="F114" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="G114" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="H114" t="s">
-        <v>925</v>
+        <v>906</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="B115" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
@@ -7330,24 +8320,27 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="F115" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="G115" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="H115" t="s">
-        <v>931</v>
+        <v>912</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="B116" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
@@ -7356,24 +8349,27 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="F116" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="G116" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="H116" t="s">
-        <v>937</v>
+        <v>918</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="B117" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -7382,24 +8378,27 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="F117" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="G117" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="H117" t="s">
-        <v>943</v>
+        <v>924</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="B118" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -7408,16 +8407,16 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="F118" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="G118" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="H118" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="I118" t="s">
         <v>30</v>
@@ -7425,10 +8424,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="B119" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -7437,16 +8436,16 @@
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="F119" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="G119" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="H119" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="I119" t="s">
         <v>30</v>
@@ -7454,10 +8453,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="B120" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -7466,24 +8465,27 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="F120" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="G120" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="H120" t="s">
-        <v>961</v>
+        <v>942</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="B121" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
@@ -7492,16 +8494,16 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="F121" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="G121" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="I121" t="s">
         <v>30</v>
@@ -7509,10 +8511,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="B122" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
@@ -7521,24 +8523,24 @@
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="F122" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
       <c r="G122" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
       <c r="H122" t="s">
-        <v>973</v>
+        <v>954</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="B123" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
@@ -7547,24 +8549,27 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="F123" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="G123" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="H123" t="s">
-        <v>979</v>
+        <v>960</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="B124" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
@@ -7573,24 +8578,27 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>982</v>
+        <v>963</v>
       </c>
       <c r="F124" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="G124" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="H124" t="s">
-        <v>985</v>
+        <v>966</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="B125" t="s">
-        <v>987</v>
+        <v>968</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -7599,24 +8607,27 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>988</v>
+        <v>969</v>
       </c>
       <c r="F125" t="s">
-        <v>989</v>
+        <v>970</v>
       </c>
       <c r="G125" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="H125" t="s">
-        <v>991</v>
+        <v>972</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="B126" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
@@ -7625,24 +8636,27 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="F126" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="G126" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="H126" t="s">
-        <v>997</v>
+        <v>978</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="B127" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
@@ -7651,24 +8665,27 @@
         <v>7</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="F127" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="H127" t="s">
-        <v>1003</v>
+        <v>984</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="B128" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
@@ -7677,24 +8694,27 @@
         <v>2</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="F128" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="H128" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>990</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="B129" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -7703,24 +8723,27 @@
         <v>1</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="F129" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>996</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="B130" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
@@ -7729,24 +8752,27 @@
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="F130" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="B131" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
@@ -7755,24 +8781,27 @@
         <v>3</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="F131" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="H131" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1008</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="B132" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -7781,24 +8810,27 @@
         <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="F132" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="H132" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="B133" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
@@ -7807,24 +8839,27 @@
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="F133" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="H133" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="B134" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
@@ -7833,24 +8868,27 @@
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="F134" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="H134" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1026</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="B135" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
@@ -7859,16 +8897,135 @@
         <v>1</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H137" t="s">
+        <v>29</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B138" t="s">
         <v>1048</v>
       </c>
-      <c r="F135" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="H135" t="s">
+      <c r="F138" t="s">
         <v>1051</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/lexicon backup.xlsx
+++ b/lexicon backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjohns/Desktop/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666E37E-56D1-314B-9802-90E17E19437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F0940-9674-9F45-A1F6-50CE0D48CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="660" windowWidth="13000" windowHeight="20520" xr2:uid="{94D6E9CA-AF84-3445-BCA6-352956A682AC}"/>
   </bookViews>
@@ -3527,9 +3527,6 @@
     <t>audio/examples/thishardthinginourheadisaskull.mp3</t>
   </si>
   <si>
-    <t>audio/examples/haveyouheverseenamountainlion.mp3</t>
-  </si>
-  <si>
     <t>audio/examples/thebobcatsarefriendly.mp3</t>
   </si>
   <si>
@@ -3558,6 +3555,9 @@
   </si>
   <si>
     <t>audio/examples/hangupthesaddle.mp3</t>
+  </si>
+  <si>
+    <t>audio/examples/haveyoueverseenamountainlion.mp3</t>
   </si>
 </sst>
 </file>
@@ -3944,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C70B7F-39B1-CF49-AFC9-B05A2423C135}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K92" zoomScale="113" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView tabSelected="1" topLeftCell="L84" zoomScale="113" workbookViewId="0">
+      <selection activeCell="Q92" sqref="Q92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7170,7 +7170,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>674</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>679</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>684</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>693</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>701</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>709</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>717</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>725</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>730</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>739</v>
       </c>
@@ -7532,10 +7532,10 @@
         <v>747</v>
       </c>
       <c r="N90" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>748</v>
       </c>
@@ -7573,10 +7573,10 @@
         <v>756</v>
       </c>
       <c r="N91" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>757</v>
       </c>
@@ -7614,10 +7614,13 @@
         <v>764</v>
       </c>
       <c r="N92" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>1164</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>765</v>
       </c>
@@ -7655,10 +7658,10 @@
         <v>773</v>
       </c>
       <c r="N93" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>774</v>
       </c>
@@ -7696,10 +7699,10 @@
         <v>782</v>
       </c>
       <c r="N94" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>783</v>
       </c>
@@ -7737,10 +7740,10 @@
         <v>790</v>
       </c>
       <c r="N95" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>791</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>799</v>
       </c>
       <c r="N96" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7819,7 +7822,7 @@
         <v>808</v>
       </c>
       <c r="N97" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -7984,7 +7987,7 @@
         <v>841</v>
       </c>
       <c r="N103" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -8019,7 +8022,7 @@
         <v>847</v>
       </c>
       <c r="N104" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -8100,7 +8103,7 @@
         <v>864</v>
       </c>
       <c r="N107" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">

--- a/lexicon backup.xlsx
+++ b/lexicon backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjohns/Desktop/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F0940-9674-9F45-A1F6-50CE0D48CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B6E3F-9A9A-D84D-9BBB-7568DEC4DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="660" windowWidth="13000" windowHeight="20520" xr2:uid="{94D6E9CA-AF84-3445-BCA6-352956A682AC}"/>
+    <workbookView xWindow="900" yWindow="660" windowWidth="28400" windowHeight="20520" xr2:uid="{94D6E9CA-AF84-3445-BCA6-352956A682AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1189">
   <si>
     <t>oodham</t>
   </si>
@@ -3179,9 +3179,6 @@
     <t>[ˈhɔ.hɑ]</t>
   </si>
   <si>
-    <t>Tohono O'odham</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
@@ -3558,6 +3555,54 @@
   </si>
   <si>
     <t>audio/examples/haveyoueverseenamountainlion.mp3</t>
+  </si>
+  <si>
+    <t>ceoj</t>
+  </si>
+  <si>
+    <t>man, male</t>
+  </si>
+  <si>
+    <t>[cɯɔɟ̥]</t>
+  </si>
+  <si>
+    <t>cecoj</t>
+  </si>
+  <si>
+    <t>[ˈcɯ.cɔɟ̥]</t>
+  </si>
+  <si>
+    <t>men, males</t>
+  </si>
+  <si>
+    <t>’uvĭ</t>
+  </si>
+  <si>
+    <t>woman, female</t>
+  </si>
+  <si>
+    <t>[ˈʔu.vĭ]</t>
+  </si>
+  <si>
+    <t>’u’uvĭ</t>
+  </si>
+  <si>
+    <t>[ˈʔu.ʔu.vĭ]</t>
+  </si>
+  <si>
+    <t>women, females</t>
+  </si>
+  <si>
+    <t>’O’odham</t>
+  </si>
+  <si>
+    <t>person, O’odham person // people, O’odham people</t>
+  </si>
+  <si>
+    <t>[ˈʔɔ.ʔɔd.hɑm]</t>
+  </si>
+  <si>
+    <t>Any||Tohono O'odham</t>
   </si>
 </sst>
 </file>
@@ -3944,10 +3989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C70B7F-39B1-CF49-AFC9-B05A2423C135}">
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L84" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q92" sqref="Q92"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4049,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -4093,7 +4138,7 @@
         <v>1036</v>
       </c>
       <c r="N3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -4134,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -4175,7 +4220,7 @@
         <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -4216,7 +4261,7 @@
         <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -4257,7 +4302,7 @@
         <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -4298,7 +4343,7 @@
         <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4339,7 +4384,7 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4380,7 +4425,7 @@
         <v>89</v>
       </c>
       <c r="N10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4421,7 +4466,7 @@
         <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4462,7 +4507,7 @@
         <v>106</v>
       </c>
       <c r="N12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -4503,7 +4548,7 @@
         <v>115</v>
       </c>
       <c r="N13" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -4544,7 +4589,7 @@
         <v>124</v>
       </c>
       <c r="N14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4585,7 +4630,7 @@
         <v>133</v>
       </c>
       <c r="N15" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4626,7 +4671,7 @@
         <v>142</v>
       </c>
       <c r="N16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -4667,7 +4712,7 @@
         <v>151</v>
       </c>
       <c r="N17" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4693,7 +4738,7 @@
         <v>156</v>
       </c>
       <c r="N18" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -4734,7 +4779,7 @@
         <v>165</v>
       </c>
       <c r="N19" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4763,7 +4808,7 @@
         <v>171</v>
       </c>
       <c r="N20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4804,7 +4849,7 @@
         <v>180</v>
       </c>
       <c r="N21" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -4845,7 +4890,7 @@
         <v>189</v>
       </c>
       <c r="N22" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4886,7 +4931,7 @@
         <v>198</v>
       </c>
       <c r="N23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4927,7 +4972,7 @@
         <v>207</v>
       </c>
       <c r="N24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4968,7 +5013,7 @@
         <v>216</v>
       </c>
       <c r="N25" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4997,7 +5042,7 @@
         <v>223</v>
       </c>
       <c r="N26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -5038,7 +5083,7 @@
         <v>232</v>
       </c>
       <c r="N27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -5070,7 +5115,7 @@
         <v>1043</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K28" t="s">
         <v>239</v>
@@ -5079,7 +5124,7 @@
         <v>240</v>
       </c>
       <c r="N28" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -5120,7 +5165,7 @@
         <v>249</v>
       </c>
       <c r="N29" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -5161,7 +5206,7 @@
         <v>258</v>
       </c>
       <c r="N30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -5193,7 +5238,7 @@
         <v>1043</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K31" t="s">
         <v>265</v>
@@ -5202,7 +5247,7 @@
         <v>266</v>
       </c>
       <c r="N31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5243,7 +5288,7 @@
         <v>275</v>
       </c>
       <c r="N32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5284,7 +5329,7 @@
         <v>291</v>
       </c>
       <c r="N33" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5325,7 +5370,7 @@
         <v>284</v>
       </c>
       <c r="N34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -5366,7 +5411,7 @@
         <v>298</v>
       </c>
       <c r="N35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5407,7 +5452,7 @@
         <v>307</v>
       </c>
       <c r="N36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5448,7 +5493,7 @@
         <v>316</v>
       </c>
       <c r="N37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -5480,7 +5525,7 @@
         <v>1043</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K38" t="s">
         <v>323</v>
@@ -5489,7 +5534,7 @@
         <v>324</v>
       </c>
       <c r="N38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5530,7 +5575,7 @@
         <v>333</v>
       </c>
       <c r="N39" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -5571,7 +5616,7 @@
         <v>342</v>
       </c>
       <c r="N40" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -5612,7 +5657,7 @@
         <v>349</v>
       </c>
       <c r="N41" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -5653,7 +5698,7 @@
         <v>358</v>
       </c>
       <c r="N42" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -5694,7 +5739,7 @@
         <v>367</v>
       </c>
       <c r="N43" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -5735,7 +5780,7 @@
         <v>375</v>
       </c>
       <c r="N44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5776,7 +5821,7 @@
         <v>384</v>
       </c>
       <c r="N45" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5817,7 +5862,7 @@
         <v>393</v>
       </c>
       <c r="N46" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -5858,7 +5903,7 @@
         <v>402</v>
       </c>
       <c r="N47" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5899,7 +5944,7 @@
         <v>411</v>
       </c>
       <c r="N48" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -5940,7 +5985,7 @@
         <v>420</v>
       </c>
       <c r="N49" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5981,7 +6026,7 @@
         <v>429</v>
       </c>
       <c r="N50" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6022,7 +6067,7 @@
         <v>438</v>
       </c>
       <c r="N51" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6063,7 +6108,7 @@
         <v>447</v>
       </c>
       <c r="N52" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6104,7 +6149,7 @@
         <v>456</v>
       </c>
       <c r="N53" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6145,7 +6190,7 @@
         <v>463</v>
       </c>
       <c r="N54" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6186,7 +6231,7 @@
         <v>472</v>
       </c>
       <c r="N55" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6218,7 +6263,7 @@
         <v>1043</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K56" t="s">
         <v>479</v>
@@ -6227,7 +6272,7 @@
         <v>480</v>
       </c>
       <c r="N56" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6268,7 +6313,7 @@
         <v>489</v>
       </c>
       <c r="N57" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6309,7 +6354,7 @@
         <v>498</v>
       </c>
       <c r="N58" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6341,7 +6386,7 @@
         <v>1043</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K59" t="s">
         <v>505</v>
@@ -6350,7 +6395,7 @@
         <v>506</v>
       </c>
       <c r="N59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6382,7 +6427,7 @@
         <v>1043</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K60" t="s">
         <v>513</v>
@@ -6391,7 +6436,7 @@
         <v>514</v>
       </c>
       <c r="N60" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6432,7 +6477,7 @@
         <v>523</v>
       </c>
       <c r="N61" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6473,7 +6518,7 @@
         <v>532</v>
       </c>
       <c r="N62" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6514,7 +6559,7 @@
         <v>541</v>
       </c>
       <c r="N63" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -6546,7 +6591,7 @@
         <v>1043</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="K64" t="s">
         <v>548</v>
@@ -6555,7 +6600,7 @@
         <v>549</v>
       </c>
       <c r="N64" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6596,7 +6641,7 @@
         <v>558</v>
       </c>
       <c r="N65" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6637,7 +6682,7 @@
         <v>567</v>
       </c>
       <c r="N66" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6663,7 +6708,7 @@
         <v>572</v>
       </c>
       <c r="N67" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6704,7 +6749,7 @@
         <v>581</v>
       </c>
       <c r="N68" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6745,7 +6790,7 @@
         <v>590</v>
       </c>
       <c r="N69" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6786,7 +6831,7 @@
         <v>599</v>
       </c>
       <c r="N70" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6827,7 +6872,7 @@
         <v>608</v>
       </c>
       <c r="N71" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6857,7 +6902,7 @@
         <v>613</v>
       </c>
       <c r="N72" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -6877,13 +6922,13 @@
         <v>1043</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K73" t="s">
         <v>617</v>
       </c>
       <c r="N73" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6924,7 +6969,7 @@
         <v>626</v>
       </c>
       <c r="N74" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6965,7 +7010,7 @@
         <v>635</v>
       </c>
       <c r="N75" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -6997,7 +7042,7 @@
         <v>1043</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K76" t="s">
         <v>642</v>
@@ -7006,7 +7051,7 @@
         <v>643</v>
       </c>
       <c r="N76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7047,7 +7092,7 @@
         <v>651</v>
       </c>
       <c r="N77" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7088,7 +7133,7 @@
         <v>659</v>
       </c>
       <c r="N78" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7129,7 +7174,7 @@
         <v>667</v>
       </c>
       <c r="N79" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7161,13 +7206,13 @@
         <v>1043</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K80" t="s">
         <v>673</v>
       </c>
       <c r="N80" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -7193,7 +7238,7 @@
         <v>678</v>
       </c>
       <c r="N81" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7219,7 +7264,7 @@
         <v>683</v>
       </c>
       <c r="N82" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -7260,7 +7305,7 @@
         <v>692</v>
       </c>
       <c r="N83" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7292,7 +7337,7 @@
         <v>1043</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K84" t="s">
         <v>699</v>
@@ -7301,7 +7346,7 @@
         <v>700</v>
       </c>
       <c r="N84" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7333,7 +7378,7 @@
         <v>1043</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K85" t="s">
         <v>707</v>
@@ -7342,7 +7387,7 @@
         <v>708</v>
       </c>
       <c r="N85" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7374,7 +7419,7 @@
         <v>1043</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K86" t="s">
         <v>715</v>
@@ -7383,7 +7428,7 @@
         <v>716</v>
       </c>
       <c r="N86" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7415,7 +7460,7 @@
         <v>1043</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K87" t="s">
         <v>723</v>
@@ -7424,7 +7469,7 @@
         <v>724</v>
       </c>
       <c r="N87" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -7450,7 +7495,7 @@
         <v>729</v>
       </c>
       <c r="N88" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -7491,7 +7536,7 @@
         <v>738</v>
       </c>
       <c r="N89" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7532,7 +7577,7 @@
         <v>747</v>
       </c>
       <c r="N90" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -7573,7 +7618,7 @@
         <v>756</v>
       </c>
       <c r="N91" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -7605,7 +7650,7 @@
         <v>1043</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K92" t="s">
         <v>763</v>
@@ -7614,7 +7659,7 @@
         <v>764</v>
       </c>
       <c r="N92" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O92">
         <v>4</v>
@@ -7658,7 +7703,7 @@
         <v>773</v>
       </c>
       <c r="N93" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -7699,7 +7744,7 @@
         <v>782</v>
       </c>
       <c r="N94" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7731,7 +7776,7 @@
         <v>1043</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K95" t="s">
         <v>789</v>
@@ -7740,7 +7785,7 @@
         <v>790</v>
       </c>
       <c r="N95" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7781,7 +7826,7 @@
         <v>799</v>
       </c>
       <c r="N96" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7822,7 +7867,7 @@
         <v>808</v>
       </c>
       <c r="N97" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -7987,7 +8032,7 @@
         <v>841</v>
       </c>
       <c r="N103" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -8022,7 +8067,7 @@
         <v>847</v>
       </c>
       <c r="N104" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -8103,7 +8148,7 @@
         <v>864</v>
       </c>
       <c r="N107" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -8970,15 +9015,15 @@
         <v>29</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1047</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B138" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
@@ -8987,16 +9032,16 @@
         <v>4</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F138" t="s">
         <v>1050</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H138" t="s">
         <v>1051</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H138" t="s">
-        <v>1052</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>1043</v>
@@ -9004,10 +9049,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B139" t="s">
         <v>1053</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1054</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
@@ -9016,18 +9061,90 @@
         <v>2</v>
       </c>
       <c r="E139" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F139" t="s">
         <v>1055</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>1057</v>
-      </c>
       <c r="H139" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I139" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>1043</v>
       </c>
     </row>

--- a/lexicon backup.xlsx
+++ b/lexicon backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjohns/Desktop/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B6E3F-9A9A-D84D-9BBB-7568DEC4DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6785CAF-C814-F74B-8F82-53D986515E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="660" windowWidth="28400" windowHeight="20520" xr2:uid="{94D6E9CA-AF84-3445-BCA6-352956A682AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1177">
   <si>
     <t>oodham</t>
   </si>
@@ -128,9 +128,6 @@
     <t>baskets</t>
   </si>
   <si>
-    <t>Ak-Chin</t>
-  </si>
-  <si>
     <t>Ñ-vi:vi’ibaḍ ’at na:to ’i:da hoa.::My great-grandma made this basket. || ’Ant o ha’i ha-gagḍa g hoaha.::I’m going to sell some of the baskets.</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>mi:stol</t>
   </si>
   <si>
-    <t>Tohono O’odham</t>
-  </si>
-  <si>
     <t>audio/catmistol.mp3</t>
   </si>
   <si>
@@ -3557,52 +3551,22 @@
     <t>audio/examples/haveyoueverseenamountainlion.mp3</t>
   </si>
   <si>
-    <t>ceoj</t>
-  </si>
-  <si>
-    <t>man, male</t>
-  </si>
-  <si>
-    <t>[cɯɔɟ̥]</t>
-  </si>
-  <si>
-    <t>cecoj</t>
-  </si>
-  <si>
-    <t>[ˈcɯ.cɔɟ̥]</t>
-  </si>
-  <si>
-    <t>men, males</t>
-  </si>
-  <si>
-    <t>’uvĭ</t>
-  </si>
-  <si>
-    <t>woman, female</t>
-  </si>
-  <si>
-    <t>[ˈʔu.vĭ]</t>
-  </si>
-  <si>
-    <t>’u’uvĭ</t>
-  </si>
-  <si>
-    <t>[ˈʔu.ʔu.vĭ]</t>
-  </si>
-  <si>
-    <t>women, females</t>
-  </si>
-  <si>
-    <t>’O’odham</t>
-  </si>
-  <si>
-    <t>person, O’odham person // people, O’odham people</t>
-  </si>
-  <si>
-    <t>[ˈʔɔ.ʔɔd.hɑm]</t>
-  </si>
-  <si>
-    <t>Any||Tohono O'odham</t>
+    <t>dialect_id</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Ak-Chin || Any</t>
+  </si>
+  <si>
+    <t>akchin</t>
+  </si>
+  <si>
+    <t>Tohono O’odham || Any</t>
+  </si>
+  <si>
+    <t>tohono</t>
   </si>
 </sst>
 </file>
@@ -3989,10 +3953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C70B7F-39B1-CF49-AFC9-B05A2423C135}">
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4006,13 +3970,14 @@
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4040,23 +4005,29 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4082,22 +4053,23 @@
         <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4123,30 +4095,33 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -4155,39 +4130,40 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="N4" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -4196,39 +4172,40 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="N5" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -4237,39 +4214,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" t="s">
         <v>56</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>57</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="N6" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -4278,39 +4256,40 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>62</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>63</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" t="s">
         <v>65</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>66</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="N7" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -4319,39 +4298,40 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>72</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="N8" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -4360,39 +4340,39 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>81</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" t="s">
         <v>83</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>84</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>85</v>
       </c>
-      <c r="N9" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>86</v>
-      </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -4401,39 +4381,42 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>79</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>88</v>
       </c>
-      <c r="L10" t="s">
+      <c r="B11" t="s">
         <v>89</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -4442,39 +4425,40 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
         <v>92</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L11" t="s">
         <v>94</v>
       </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" t="s">
         <v>95</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>96</v>
       </c>
-      <c r="L11" t="s">
+      <c r="B12" t="s">
         <v>97</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -4483,39 +4467,40 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
         <v>100</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>101</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" t="s">
         <v>104</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="L12" t="s">
+      <c r="B13" t="s">
         <v>106</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -4524,39 +4509,40 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
         <v>109</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" t="s">
         <v>113</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>114</v>
       </c>
-      <c r="L13" t="s">
+      <c r="B14" t="s">
         <v>115</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -4565,39 +4551,40 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
         <v>118</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>119</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="M14" t="s">
         <v>122</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>123</v>
       </c>
-      <c r="L14" t="s">
+      <c r="B15" t="s">
         <v>124</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -4606,39 +4593,40 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
         <v>127</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>128</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="M15" t="s">
         <v>131</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>132</v>
       </c>
-      <c r="L15" t="s">
+      <c r="B16" t="s">
         <v>133</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" t="s">
-        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -4647,39 +4635,40 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
         <v>136</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="M16" t="s">
         <v>140</v>
       </c>
-      <c r="K16" t="s">
+      <c r="O16" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>141</v>
       </c>
-      <c r="L16" t="s">
+      <c r="B17" t="s">
         <v>142</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -4688,65 +4677,67 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
         <v>145</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>146</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17" t="s">
         <v>149</v>
       </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>150</v>
       </c>
-      <c r="L17" t="s">
+      <c r="B18" t="s">
         <v>151</v>
       </c>
-      <c r="N17" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>152</v>
       </c>
-      <c r="B18" t="s">
+      <c r="I18" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="L18" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="O18" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>155</v>
       </c>
-      <c r="K18" t="s">
+      <c r="B19" t="s">
         <v>156</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -4755,68 +4746,69 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
         <v>159</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>160</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>162</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" t="s">
         <v>163</v>
       </c>
-      <c r="K19" t="s">
+      <c r="O19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>164</v>
       </c>
-      <c r="L19" t="s">
+      <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="N19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
         <v>166</v>
       </c>
-      <c r="B20" t="s">
+      <c r="I20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="L20" t="s">
         <v>168</v>
       </c>
-      <c r="I20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="N20" t="s">
         <v>169</v>
       </c>
-      <c r="K20" t="s">
+      <c r="O20" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>170</v>
       </c>
-      <c r="M20" t="s">
+      <c r="B21" t="s">
         <v>171</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -4825,39 +4817,40 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="M21" t="s">
         <v>178</v>
       </c>
-      <c r="K21" t="s">
+      <c r="O21" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>179</v>
       </c>
-      <c r="L21" t="s">
+      <c r="B22" t="s">
         <v>180</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" t="s">
-        <v>182</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -4866,39 +4859,40 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
         <v>183</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>184</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="M22" t="s">
         <v>187</v>
       </c>
-      <c r="K22" t="s">
+      <c r="O22" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>188</v>
       </c>
-      <c r="L22" t="s">
+      <c r="B23" t="s">
         <v>189</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" t="s">
-        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -4907,39 +4901,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
         <v>192</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>193</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" t="s">
         <v>195</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="M23" t="s">
         <v>196</v>
       </c>
-      <c r="K23" t="s">
+      <c r="O23" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>197</v>
       </c>
-      <c r="L23" t="s">
+      <c r="B24" t="s">
         <v>198</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" t="s">
-        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -4948,39 +4943,40 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
         <v>201</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>202</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>204</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="M24" t="s">
         <v>205</v>
       </c>
-      <c r="K24" t="s">
+      <c r="O24" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>206</v>
       </c>
-      <c r="L24" t="s">
+      <c r="B25" t="s">
         <v>207</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -4989,68 +4985,70 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
         <v>210</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>211</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H25" t="s">
+      <c r="L25" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="M25" t="s">
         <v>214</v>
       </c>
-      <c r="K25" t="s">
+      <c r="O25" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>215</v>
       </c>
-      <c r="L25" t="s">
+      <c r="B26" t="s">
         <v>216</v>
       </c>
-      <c r="N25" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
         <v>217</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>218</v>
       </c>
-      <c r="C26" t="s">
+      <c r="I26" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E26" t="s">
+      <c r="L26" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="M26" t="s">
         <v>221</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>222</v>
       </c>
-      <c r="L26" t="s">
+      <c r="B27" t="s">
         <v>223</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" t="s">
-        <v>225</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -5059,39 +5057,40 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
         <v>226</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>227</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H27" t="s">
+      <c r="L27" t="s">
         <v>229</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="M27" t="s">
         <v>230</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>231</v>
       </c>
-      <c r="L27" t="s">
+      <c r="B28" t="s">
         <v>232</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" t="s">
-        <v>234</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -5100,39 +5099,40 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
         <v>235</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>236</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L28" t="s">
         <v>237</v>
       </c>
-      <c r="H28" t="s">
+      <c r="M28" t="s">
         <v>238</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="O28" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>239</v>
       </c>
-      <c r="L28" t="s">
+      <c r="B29" t="s">
         <v>240</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" t="s">
-        <v>242</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -5141,39 +5141,40 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
         <v>243</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>244</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>246</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="M29" t="s">
         <v>247</v>
       </c>
-      <c r="K29" t="s">
+      <c r="O29" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>248</v>
       </c>
-      <c r="L29" t="s">
+      <c r="B30" t="s">
         <v>249</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" t="s">
-        <v>251</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -5182,39 +5183,40 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
         <v>252</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>253</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H30" t="s">
+      <c r="L30" t="s">
         <v>255</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="M30" t="s">
         <v>256</v>
       </c>
-      <c r="K30" t="s">
+      <c r="O30" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>257</v>
       </c>
-      <c r="L30" t="s">
+      <c r="B31" t="s">
         <v>258</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" t="s">
-        <v>260</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -5223,39 +5225,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
         <v>261</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>262</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L31" t="s">
         <v>263</v>
       </c>
-      <c r="H31" t="s">
+      <c r="M31" t="s">
         <v>264</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="O31" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>265</v>
       </c>
-      <c r="L31" t="s">
+      <c r="B32" t="s">
         <v>266</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B32" t="s">
-        <v>268</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -5264,39 +5267,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
         <v>269</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>270</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H32" t="s">
+      <c r="L32" t="s">
         <v>272</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="M32" t="s">
         <v>273</v>
       </c>
-      <c r="K32" t="s">
+      <c r="O32" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>274</v>
       </c>
-      <c r="L32" t="s">
+      <c r="B33" t="s">
         <v>275</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B33" t="s">
-        <v>277</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -5305,39 +5309,40 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s">
         <v>278</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>279</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H33" t="s">
-        <v>281</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K33" t="s">
-        <v>290</v>
-      </c>
       <c r="L33" t="s">
-        <v>291</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="M33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -5346,39 +5351,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
         <v>286</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
+        <v>279</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G34" t="s">
-        <v>288</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="L34" t="s">
         <v>281</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K34" t="s">
-        <v>283</v>
-      </c>
-      <c r="L34" t="s">
-        <v>284</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -5387,39 +5393,40 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H35" t="s">
+        <v>293</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G35" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="L35" t="s">
         <v>295</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="M35" t="s">
         <v>296</v>
       </c>
-      <c r="K35" t="s">
+      <c r="O35" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>297</v>
       </c>
-      <c r="L35" t="s">
+      <c r="B36" t="s">
         <v>298</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>299</v>
-      </c>
-      <c r="B36" t="s">
-        <v>300</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -5428,39 +5435,40 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
         <v>301</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>302</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H36" t="s">
+      <c r="L36" t="s">
         <v>304</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="M36" t="s">
         <v>305</v>
       </c>
-      <c r="K36" t="s">
+      <c r="O36" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>306</v>
       </c>
-      <c r="L36" t="s">
+      <c r="B37" t="s">
         <v>307</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>308</v>
-      </c>
-      <c r="B37" t="s">
-        <v>309</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -5469,39 +5477,40 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
         <v>310</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>311</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H37" t="s">
+      <c r="L37" t="s">
         <v>313</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="M37" t="s">
         <v>314</v>
       </c>
-      <c r="K37" t="s">
+      <c r="O37" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>315</v>
       </c>
-      <c r="L37" t="s">
+      <c r="B38" t="s">
         <v>316</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>317</v>
-      </c>
-      <c r="B38" t="s">
-        <v>318</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -5510,39 +5519,40 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
         <v>319</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>320</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L38" t="s">
         <v>321</v>
       </c>
-      <c r="H38" t="s">
+      <c r="M38" t="s">
         <v>322</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="O38" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>323</v>
       </c>
-      <c r="L38" t="s">
+      <c r="B39" t="s">
         <v>324</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>325</v>
-      </c>
-      <c r="B39" t="s">
-        <v>326</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -5551,39 +5561,40 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
         <v>327</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>328</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H39" t="s">
+      <c r="L39" t="s">
         <v>330</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="M39" t="s">
         <v>331</v>
       </c>
-      <c r="K39" t="s">
+      <c r="O39" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>332</v>
       </c>
-      <c r="L39" t="s">
+      <c r="B40" t="s">
         <v>333</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>334</v>
-      </c>
-      <c r="B40" t="s">
-        <v>335</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -5592,39 +5603,40 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
+        <v>334</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
         <v>336</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>337</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H40" t="s">
+      <c r="L40" t="s">
         <v>339</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="M40" t="s">
         <v>340</v>
       </c>
-      <c r="K40" t="s">
+      <c r="O40" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>341</v>
       </c>
-      <c r="L40" t="s">
-        <v>342</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>343</v>
-      </c>
       <c r="B41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -5633,39 +5645,40 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
         <v>344</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>337</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G41" t="s">
+      <c r="L41" t="s">
         <v>346</v>
       </c>
-      <c r="H41" t="s">
-        <v>339</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="M41" t="s">
         <v>347</v>
       </c>
-      <c r="K41" t="s">
+      <c r="O41" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>348</v>
       </c>
-      <c r="L41" t="s">
+      <c r="B42" t="s">
         <v>349</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>350</v>
-      </c>
-      <c r="B42" t="s">
-        <v>351</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -5674,39 +5687,40 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
+        <v>350</v>
+      </c>
+      <c r="F42" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" t="s">
         <v>352</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>353</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H42" t="s">
+      <c r="L42" t="s">
         <v>355</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="M42" t="s">
         <v>356</v>
       </c>
-      <c r="K42" t="s">
+      <c r="O42" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>357</v>
       </c>
-      <c r="L42" t="s">
+      <c r="B43" t="s">
         <v>358</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>359</v>
-      </c>
-      <c r="B43" t="s">
-        <v>360</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -5715,39 +5729,40 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" t="s">
         <v>361</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>362</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H43" t="s">
+      <c r="L43" t="s">
         <v>364</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="M43" t="s">
         <v>365</v>
       </c>
-      <c r="K43" t="s">
+      <c r="O43" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>366</v>
       </c>
-      <c r="L43" t="s">
+      <c r="B44" t="s">
         <v>367</v>
-      </c>
-      <c r="N43" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B44" t="s">
-        <v>369</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -5756,39 +5771,40 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" t="s">
         <v>370</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>371</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H44" t="s">
+      <c r="L44" t="s">
         <v>373</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="M44" t="s">
+        <v>373</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>374</v>
       </c>
-      <c r="K44" t="s">
+      <c r="B45" t="s">
         <v>375</v>
-      </c>
-      <c r="L44" t="s">
-        <v>375</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>376</v>
-      </c>
-      <c r="B45" t="s">
-        <v>377</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -5797,39 +5813,40 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
         <v>378</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>379</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H45" t="s">
+      <c r="L45" t="s">
         <v>381</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="M45" t="s">
         <v>382</v>
       </c>
-      <c r="K45" t="s">
+      <c r="O45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>383</v>
       </c>
-      <c r="L45" t="s">
+      <c r="B46" t="s">
         <v>384</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>385</v>
-      </c>
-      <c r="B46" t="s">
-        <v>386</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -5838,39 +5855,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
+        <v>385</v>
+      </c>
+      <c r="F46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" t="s">
         <v>387</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>388</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H46" t="s">
+      <c r="L46" t="s">
         <v>390</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="M46" t="s">
         <v>391</v>
       </c>
-      <c r="K46" t="s">
+      <c r="O46" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>392</v>
       </c>
-      <c r="L46" t="s">
+      <c r="B47" t="s">
         <v>393</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>394</v>
-      </c>
-      <c r="B47" t="s">
-        <v>395</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -5879,39 +5897,40 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
+        <v>394</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
         <v>396</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>397</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H47" t="s">
+      <c r="L47" t="s">
         <v>399</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="M47" t="s">
         <v>400</v>
       </c>
-      <c r="K47" t="s">
+      <c r="O47" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>401</v>
       </c>
-      <c r="L47" t="s">
+      <c r="B48" t="s">
         <v>402</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>403</v>
-      </c>
-      <c r="B48" t="s">
-        <v>404</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -5920,39 +5939,40 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
+        <v>403</v>
+      </c>
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" t="s">
         <v>405</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>406</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H48" t="s">
+      <c r="L48" t="s">
         <v>408</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="M48" t="s">
         <v>409</v>
       </c>
-      <c r="K48" t="s">
+      <c r="O48" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>410</v>
       </c>
-      <c r="L48" t="s">
+      <c r="B49" t="s">
         <v>411</v>
-      </c>
-      <c r="N48" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>412</v>
-      </c>
-      <c r="B49" t="s">
-        <v>413</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -5961,39 +5981,40 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
+        <v>412</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
         <v>414</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>415</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H49" t="s">
+      <c r="L49" t="s">
         <v>417</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="M49" t="s">
         <v>418</v>
       </c>
-      <c r="K49" t="s">
+      <c r="O49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>419</v>
       </c>
-      <c r="L49" t="s">
+      <c r="B50" t="s">
         <v>420</v>
-      </c>
-      <c r="N49" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>421</v>
-      </c>
-      <c r="B50" t="s">
-        <v>422</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -6002,39 +6023,40 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
+        <v>421</v>
+      </c>
+      <c r="F50" t="s">
+        <v>422</v>
+      </c>
+      <c r="G50" t="s">
         <v>423</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>424</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H50" t="s">
+      <c r="L50" t="s">
         <v>426</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J50" s="1" t="s">
+      <c r="M50" t="s">
         <v>427</v>
       </c>
-      <c r="K50" t="s">
+      <c r="O50" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>428</v>
       </c>
-      <c r="L50" t="s">
+      <c r="B51" t="s">
         <v>429</v>
-      </c>
-      <c r="N50" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>430</v>
-      </c>
-      <c r="B51" t="s">
-        <v>431</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -6043,39 +6065,40 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
+        <v>430</v>
+      </c>
+      <c r="F51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" t="s">
         <v>432</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>433</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H51" t="s">
+      <c r="L51" t="s">
         <v>435</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J51" s="1" t="s">
+      <c r="M51" t="s">
         <v>436</v>
       </c>
-      <c r="K51" t="s">
+      <c r="O51" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>437</v>
       </c>
-      <c r="L51" t="s">
+      <c r="B52" t="s">
         <v>438</v>
-      </c>
-      <c r="N51" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>439</v>
-      </c>
-      <c r="B52" t="s">
-        <v>440</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -6084,39 +6107,40 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
+        <v>439</v>
+      </c>
+      <c r="F52" t="s">
+        <v>440</v>
+      </c>
+      <c r="G52" t="s">
         <v>441</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>442</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H52" t="s">
+      <c r="L52" t="s">
         <v>444</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="M52" t="s">
         <v>445</v>
       </c>
-      <c r="K52" t="s">
+      <c r="O52" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>446</v>
       </c>
-      <c r="L52" t="s">
+      <c r="B53" t="s">
         <v>447</v>
-      </c>
-      <c r="N52" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>448</v>
-      </c>
-      <c r="B53" t="s">
-        <v>449</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -6125,39 +6149,40 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" t="s">
         <v>450</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>451</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H53" t="s">
+      <c r="L53" t="s">
         <v>453</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="M53" t="s">
         <v>454</v>
       </c>
-      <c r="K53" t="s">
+      <c r="O53" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>455</v>
       </c>
-      <c r="L53" t="s">
-        <v>456</v>
-      </c>
-      <c r="N53" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>457</v>
-      </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -6166,39 +6191,40 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
+        <v>456</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" t="s">
         <v>458</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
+        <v>451</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G54" t="s">
+      <c r="L54" t="s">
         <v>460</v>
       </c>
-      <c r="H54" t="s">
-        <v>453</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="M54" t="s">
         <v>461</v>
       </c>
-      <c r="K54" t="s">
+      <c r="O54" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>462</v>
       </c>
-      <c r="L54" t="s">
+      <c r="B55" t="s">
         <v>463</v>
-      </c>
-      <c r="N54" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>464</v>
-      </c>
-      <c r="B55" t="s">
-        <v>465</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -6207,39 +6233,40 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
+        <v>464</v>
+      </c>
+      <c r="F55" t="s">
+        <v>465</v>
+      </c>
+      <c r="G55" t="s">
         <v>466</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>467</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H55" t="s">
+      <c r="L55" t="s">
         <v>469</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="M55" t="s">
         <v>470</v>
       </c>
-      <c r="K55" t="s">
+      <c r="O55" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>471</v>
       </c>
-      <c r="L55" t="s">
+      <c r="B56" t="s">
         <v>472</v>
-      </c>
-      <c r="N55" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>473</v>
-      </c>
-      <c r="B56" t="s">
-        <v>474</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -6248,39 +6275,40 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
+        <v>473</v>
+      </c>
+      <c r="F56" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56" t="s">
         <v>475</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>476</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L56" t="s">
         <v>477</v>
       </c>
-      <c r="H56" t="s">
+      <c r="M56" t="s">
         <v>478</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="O56" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>479</v>
       </c>
-      <c r="L56" t="s">
+      <c r="B57" t="s">
         <v>480</v>
-      </c>
-      <c r="N56" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>481</v>
-      </c>
-      <c r="B57" t="s">
-        <v>482</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -6289,39 +6317,40 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
+        <v>481</v>
+      </c>
+      <c r="F57" t="s">
+        <v>482</v>
+      </c>
+      <c r="G57" t="s">
         <v>483</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>484</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H57" t="s">
+      <c r="L57" t="s">
         <v>486</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="M57" t="s">
         <v>487</v>
       </c>
-      <c r="K57" t="s">
+      <c r="O57" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>488</v>
       </c>
-      <c r="L57" t="s">
+      <c r="B58" t="s">
         <v>489</v>
-      </c>
-      <c r="N57" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>490</v>
-      </c>
-      <c r="B58" t="s">
-        <v>491</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -6330,39 +6359,40 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
+        <v>490</v>
+      </c>
+      <c r="F58" t="s">
+        <v>491</v>
+      </c>
+      <c r="G58" t="s">
         <v>492</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>493</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H58" t="s">
+      <c r="L58" t="s">
         <v>495</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="M58" t="s">
         <v>496</v>
       </c>
-      <c r="K58" t="s">
+      <c r="O58" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>497</v>
       </c>
-      <c r="L58" t="s">
+      <c r="B59" t="s">
         <v>498</v>
-      </c>
-      <c r="N58" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>499</v>
-      </c>
-      <c r="B59" t="s">
-        <v>500</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -6371,39 +6401,40 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>499</v>
+      </c>
+      <c r="F59" t="s">
+        <v>500</v>
+      </c>
+      <c r="G59" t="s">
         <v>501</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>502</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L59" t="s">
         <v>503</v>
       </c>
-      <c r="H59" t="s">
+      <c r="M59" t="s">
         <v>504</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="O59" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>505</v>
       </c>
-      <c r="L59" t="s">
+      <c r="B60" t="s">
         <v>506</v>
-      </c>
-      <c r="N59" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>507</v>
-      </c>
-      <c r="B60" t="s">
-        <v>508</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -6412,39 +6443,40 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
+        <v>507</v>
+      </c>
+      <c r="F60" t="s">
+        <v>508</v>
+      </c>
+      <c r="G60" t="s">
         <v>509</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>510</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L60" t="s">
         <v>511</v>
       </c>
-      <c r="H60" t="s">
+      <c r="M60" t="s">
         <v>512</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="O60" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>513</v>
       </c>
-      <c r="L60" t="s">
+      <c r="B61" t="s">
         <v>514</v>
-      </c>
-      <c r="N60" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>515</v>
-      </c>
-      <c r="B61" t="s">
-        <v>516</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -6453,39 +6485,40 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
+        <v>515</v>
+      </c>
+      <c r="F61" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" t="s">
         <v>517</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>518</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H61" t="s">
+      <c r="L61" t="s">
         <v>520</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="M61" t="s">
         <v>521</v>
       </c>
-      <c r="K61" t="s">
+      <c r="O61" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>522</v>
       </c>
-      <c r="L61" t="s">
+      <c r="B62" t="s">
         <v>523</v>
-      </c>
-      <c r="N61" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>524</v>
-      </c>
-      <c r="B62" t="s">
-        <v>525</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -6494,39 +6527,40 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
+        <v>524</v>
+      </c>
+      <c r="F62" t="s">
+        <v>525</v>
+      </c>
+      <c r="G62" t="s">
         <v>526</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>527</v>
       </c>
-      <c r="G62" t="s">
+      <c r="I62" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="H62" t="s">
+      <c r="L62" t="s">
         <v>529</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J62" s="1" t="s">
+      <c r="M62" t="s">
         <v>530</v>
       </c>
-      <c r="K62" t="s">
+      <c r="O62" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>531</v>
       </c>
-      <c r="L62" t="s">
+      <c r="B63" t="s">
         <v>532</v>
-      </c>
-      <c r="N62" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>533</v>
-      </c>
-      <c r="B63" t="s">
-        <v>534</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -6535,39 +6569,40 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
+        <v>533</v>
+      </c>
+      <c r="F63" t="s">
+        <v>534</v>
+      </c>
+      <c r="G63" t="s">
         <v>535</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>536</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="H63" t="s">
+      <c r="L63" t="s">
         <v>538</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J63" s="1" t="s">
+      <c r="M63" t="s">
         <v>539</v>
       </c>
-      <c r="K63" t="s">
+      <c r="O63" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>540</v>
       </c>
-      <c r="L63" t="s">
+      <c r="B64" t="s">
         <v>541</v>
-      </c>
-      <c r="N63" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>542</v>
-      </c>
-      <c r="B64" t="s">
-        <v>543</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -6576,39 +6611,40 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
+        <v>542</v>
+      </c>
+      <c r="F64" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" t="s">
         <v>544</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>545</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L64" t="s">
         <v>546</v>
       </c>
-      <c r="H64" t="s">
+      <c r="M64" t="s">
         <v>547</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="O64" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>548</v>
       </c>
-      <c r="L64" t="s">
+      <c r="B65" t="s">
         <v>549</v>
-      </c>
-      <c r="N64" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>550</v>
-      </c>
-      <c r="B65" t="s">
-        <v>551</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -6617,39 +6653,40 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
+        <v>550</v>
+      </c>
+      <c r="F65" t="s">
+        <v>551</v>
+      </c>
+      <c r="G65" t="s">
         <v>552</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>553</v>
       </c>
-      <c r="G65" t="s">
+      <c r="I65" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="H65" t="s">
+      <c r="L65" t="s">
         <v>555</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J65" s="1" t="s">
+      <c r="M65" t="s">
         <v>556</v>
       </c>
-      <c r="K65" t="s">
+      <c r="O65" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>557</v>
       </c>
-      <c r="L65" t="s">
+      <c r="B66" t="s">
         <v>558</v>
-      </c>
-      <c r="N65" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>559</v>
-      </c>
-      <c r="B66" t="s">
-        <v>560</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -6658,65 +6695,67 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
+        <v>559</v>
+      </c>
+      <c r="F66" t="s">
+        <v>560</v>
+      </c>
+      <c r="G66" t="s">
         <v>561</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>562</v>
       </c>
-      <c r="G66" t="s">
+      <c r="I66" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H66" t="s">
+      <c r="L66" t="s">
         <v>564</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J66" s="1" t="s">
+      <c r="M66" t="s">
         <v>565</v>
       </c>
-      <c r="K66" t="s">
+      <c r="O66" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>566</v>
       </c>
-      <c r="L66" t="s">
+      <c r="B67" t="s">
         <v>567</v>
       </c>
-      <c r="N66" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
         <v>568</v>
       </c>
-      <c r="B67" t="s">
+      <c r="I67" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="L67" t="s">
         <v>570</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="O67" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>571</v>
       </c>
-      <c r="K67" t="s">
+      <c r="B68" t="s">
         <v>572</v>
-      </c>
-      <c r="N67" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>573</v>
-      </c>
-      <c r="B68" t="s">
-        <v>574</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -6725,39 +6764,40 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
+        <v>573</v>
+      </c>
+      <c r="F68" t="s">
+        <v>574</v>
+      </c>
+      <c r="G68" t="s">
         <v>575</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>576</v>
       </c>
-      <c r="G68" t="s">
+      <c r="I68" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H68" t="s">
+      <c r="L68" t="s">
         <v>578</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J68" s="1" t="s">
+      <c r="M68" t="s">
         <v>579</v>
       </c>
-      <c r="K68" t="s">
+      <c r="O68" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>580</v>
       </c>
-      <c r="L68" t="s">
+      <c r="B69" t="s">
         <v>581</v>
-      </c>
-      <c r="N68" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>582</v>
-      </c>
-      <c r="B69" t="s">
-        <v>583</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -6766,39 +6806,40 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
+        <v>582</v>
+      </c>
+      <c r="F69" t="s">
+        <v>583</v>
+      </c>
+      <c r="G69" t="s">
         <v>584</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>585</v>
       </c>
-      <c r="G69" t="s">
+      <c r="I69" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="H69" t="s">
+      <c r="L69" t="s">
         <v>587</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="M69" t="s">
         <v>588</v>
       </c>
-      <c r="K69" t="s">
+      <c r="O69" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="L69" t="s">
+      <c r="B70" t="s">
         <v>590</v>
-      </c>
-      <c r="N69" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B70" t="s">
-        <v>592</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -6807,39 +6848,40 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
+        <v>591</v>
+      </c>
+      <c r="F70" t="s">
+        <v>592</v>
+      </c>
+      <c r="G70" t="s">
         <v>593</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>594</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="H70" t="s">
+      <c r="L70" t="s">
         <v>596</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J70" s="1" t="s">
+      <c r="M70" t="s">
         <v>597</v>
       </c>
-      <c r="K70" t="s">
+      <c r="O70" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>598</v>
       </c>
-      <c r="L70" t="s">
+      <c r="B71" t="s">
         <v>599</v>
-      </c>
-      <c r="N70" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>600</v>
-      </c>
-      <c r="B71" t="s">
-        <v>601</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -6848,95 +6890,98 @@
         <v>4</v>
       </c>
       <c r="E71" t="s">
+        <v>600</v>
+      </c>
+      <c r="F71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
         <v>602</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>603</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H71" t="s">
+      <c r="L71" t="s">
         <v>605</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J71" s="1" t="s">
+      <c r="M71" t="s">
         <v>606</v>
       </c>
-      <c r="K71" t="s">
+      <c r="O71" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>607</v>
       </c>
-      <c r="L71" t="s">
+      <c r="B72" t="s">
         <v>608</v>
       </c>
-      <c r="N71" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
         <v>609</v>
-      </c>
-      <c r="B72" t="s">
-        <v>610</v>
-      </c>
-      <c r="C72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" t="s">
-        <v>611</v>
       </c>
       <c r="G72" t="str">
         <f>+G79</f>
         <v>[ˈvɔː.d̪ɑ]</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J72" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L72" t="s">
+        <v>611</v>
+      </c>
+      <c r="O72" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>612</v>
       </c>
-      <c r="K72" t="s">
+      <c r="B73" t="s">
         <v>613</v>
       </c>
-      <c r="N72" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
         <v>614</v>
       </c>
-      <c r="B73" t="s">
+      <c r="I73" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L73" t="s">
         <v>615</v>
       </c>
-      <c r="C73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="O73" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>616</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="B74" t="s">
         <v>617</v>
-      </c>
-      <c r="N73" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>618</v>
-      </c>
-      <c r="B74" t="s">
-        <v>619</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -6945,39 +6990,40 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>618</v>
+      </c>
+      <c r="F74" t="s">
+        <v>619</v>
+      </c>
+      <c r="G74" t="s">
         <v>620</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>621</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H74" t="s">
+      <c r="L74" t="s">
         <v>623</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J74" s="1" t="s">
+      <c r="M74" t="s">
         <v>624</v>
       </c>
-      <c r="K74" t="s">
+      <c r="O74" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>625</v>
       </c>
-      <c r="L74" t="s">
+      <c r="B75" t="s">
         <v>626</v>
-      </c>
-      <c r="N74" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>627</v>
-      </c>
-      <c r="B75" t="s">
-        <v>628</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -6986,39 +7032,40 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
+        <v>627</v>
+      </c>
+      <c r="F75" t="s">
+        <v>628</v>
+      </c>
+      <c r="G75" t="s">
         <v>629</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>630</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H75" t="s">
+      <c r="L75" t="s">
         <v>632</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J75" s="1" t="s">
+      <c r="M75" t="s">
         <v>633</v>
       </c>
-      <c r="K75" t="s">
+      <c r="O75" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>634</v>
       </c>
-      <c r="L75" t="s">
+      <c r="B76" t="s">
         <v>635</v>
-      </c>
-      <c r="N75" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>636</v>
-      </c>
-      <c r="B76" t="s">
-        <v>637</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -7027,39 +7074,40 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
+        <v>636</v>
+      </c>
+      <c r="F76" t="s">
+        <v>637</v>
+      </c>
+      <c r="G76" t="s">
         <v>638</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>639</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L76" t="s">
         <v>640</v>
       </c>
-      <c r="H76" t="s">
+      <c r="M76" t="s">
         <v>641</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="O76" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>642</v>
       </c>
-      <c r="L76" t="s">
+      <c r="B77" t="s">
         <v>643</v>
-      </c>
-      <c r="N76" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>644</v>
-      </c>
-      <c r="B77" t="s">
-        <v>645</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -7068,39 +7116,40 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
+        <v>644</v>
+      </c>
+      <c r="F77" t="s">
+        <v>645</v>
+      </c>
+      <c r="G77" t="s">
+        <v>644</v>
+      </c>
+      <c r="H77" t="s">
         <v>646</v>
       </c>
-      <c r="F77" t="s">
+      <c r="I77" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G77" t="s">
-        <v>646</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="L77" t="s">
         <v>648</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="M77" t="s">
         <v>649</v>
       </c>
-      <c r="K77" t="s">
+      <c r="O77" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>650</v>
       </c>
-      <c r="L77" t="s">
+      <c r="B78" t="s">
         <v>651</v>
-      </c>
-      <c r="N77" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>652</v>
-      </c>
-      <c r="B78" t="s">
-        <v>653</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -7109,39 +7158,40 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
+        <v>652</v>
+      </c>
+      <c r="F78" t="s">
+        <v>653</v>
+      </c>
+      <c r="G78" t="s">
+        <v>652</v>
+      </c>
+      <c r="H78" t="s">
         <v>654</v>
       </c>
-      <c r="F78" t="s">
+      <c r="I78" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="G78" t="s">
-        <v>654</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="L78" t="s">
         <v>656</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J78" s="1" t="s">
+      <c r="M78" t="s">
         <v>657</v>
       </c>
-      <c r="K78" t="s">
+      <c r="O78" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>658</v>
       </c>
-      <c r="L78" t="s">
+      <c r="B79" t="s">
         <v>659</v>
-      </c>
-      <c r="N78" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>660</v>
-      </c>
-      <c r="B79" t="s">
-        <v>661</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -7150,39 +7200,40 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
+        <v>660</v>
+      </c>
+      <c r="F79" t="s">
+        <v>661</v>
+      </c>
+      <c r="G79" t="s">
+        <v>660</v>
+      </c>
+      <c r="H79" t="s">
         <v>662</v>
       </c>
-      <c r="F79" t="s">
+      <c r="I79" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="G79" t="s">
-        <v>662</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="L79" t="s">
         <v>664</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J79" s="1" t="s">
+      <c r="M79" t="s">
         <v>665</v>
       </c>
-      <c r="K79" t="s">
+      <c r="O79" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>666</v>
       </c>
-      <c r="L79" t="s">
+      <c r="B80" t="s">
         <v>667</v>
-      </c>
-      <c r="N79" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>668</v>
-      </c>
-      <c r="B80" t="s">
-        <v>669</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -7191,88 +7242,91 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
+        <v>668</v>
+      </c>
+      <c r="F80" t="s">
+        <v>669</v>
+      </c>
+      <c r="G80" t="s">
+        <v>668</v>
+      </c>
+      <c r="H80" t="s">
         <v>670</v>
       </c>
-      <c r="F80" t="s">
+      <c r="I80" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L80" t="s">
         <v>671</v>
       </c>
-      <c r="G80" t="s">
-        <v>670</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="O80" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>672</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="B81" t="s">
         <v>673</v>
       </c>
-      <c r="N80" t="s">
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>674</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L81" t="s">
+        <v>676</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>677</v>
+      </c>
+      <c r="B82" t="s">
+        <v>678</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>679</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="L82" t="s">
+        <v>681</v>
+      </c>
+      <c r="O82" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>674</v>
-      </c>
-      <c r="B81" t="s">
-        <v>675</v>
-      </c>
-      <c r="C81" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" t="s">
-        <v>676</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="K81" t="s">
-        <v>678</v>
-      </c>
-      <c r="N81" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>679</v>
-      </c>
-      <c r="B82" t="s">
-        <v>680</v>
-      </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" t="s">
-        <v>681</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J82" s="1" t="s">
+    <row r="83" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>682</v>
       </c>
-      <c r="K82" t="s">
+      <c r="B83" t="s">
         <v>683</v>
-      </c>
-      <c r="N82" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>684</v>
-      </c>
-      <c r="B83" t="s">
-        <v>685</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -7281,39 +7335,40 @@
         <v>4</v>
       </c>
       <c r="E83" t="s">
+        <v>684</v>
+      </c>
+      <c r="F83" t="s">
+        <v>685</v>
+      </c>
+      <c r="G83" t="s">
         <v>686</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>687</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I83" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H83" t="s">
+      <c r="L83" t="s">
         <v>689</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J83" s="1" t="s">
+      <c r="M83" t="s">
         <v>690</v>
       </c>
-      <c r="K83" t="s">
+      <c r="O83" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>691</v>
       </c>
-      <c r="L83" t="s">
+      <c r="B84" t="s">
         <v>692</v>
-      </c>
-      <c r="N83" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>693</v>
-      </c>
-      <c r="B84" t="s">
-        <v>694</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -7322,39 +7377,40 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
+        <v>693</v>
+      </c>
+      <c r="F84" t="s">
+        <v>694</v>
+      </c>
+      <c r="G84" t="s">
         <v>695</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>696</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L84" t="s">
         <v>697</v>
       </c>
-      <c r="H84" t="s">
+      <c r="M84" t="s">
         <v>698</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="O84" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>699</v>
       </c>
-      <c r="L84" t="s">
+      <c r="B85" t="s">
         <v>700</v>
-      </c>
-      <c r="N84" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>701</v>
-      </c>
-      <c r="B85" t="s">
-        <v>702</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -7363,39 +7419,40 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
+        <v>701</v>
+      </c>
+      <c r="F85" t="s">
+        <v>702</v>
+      </c>
+      <c r="G85" t="s">
         <v>703</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>704</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L85" t="s">
         <v>705</v>
       </c>
-      <c r="H85" t="s">
+      <c r="M85" t="s">
         <v>706</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="O85" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>707</v>
       </c>
-      <c r="L85" t="s">
+      <c r="B86" t="s">
         <v>708</v>
-      </c>
-      <c r="N85" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>709</v>
-      </c>
-      <c r="B86" t="s">
-        <v>710</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
@@ -7404,39 +7461,40 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
+        <v>709</v>
+      </c>
+      <c r="F86" t="s">
+        <v>710</v>
+      </c>
+      <c r="G86" t="s">
         <v>711</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>712</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L86" t="s">
         <v>713</v>
       </c>
-      <c r="H86" t="s">
+      <c r="M86" t="s">
         <v>714</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K86" t="s">
+      <c r="O86" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>715</v>
       </c>
-      <c r="L86" t="s">
+      <c r="B87" t="s">
         <v>716</v>
-      </c>
-      <c r="N86" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>717</v>
-      </c>
-      <c r="B87" t="s">
-        <v>718</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -7445,65 +7503,67 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
+        <v>717</v>
+      </c>
+      <c r="F87" t="s">
+        <v>718</v>
+      </c>
+      <c r="G87" t="s">
         <v>719</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>720</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I87" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L87" t="s">
         <v>721</v>
       </c>
-      <c r="H87" t="s">
+      <c r="M87" t="s">
         <v>722</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="K87" t="s">
+      <c r="O87" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>723</v>
       </c>
-      <c r="L87" t="s">
+      <c r="B88" t="s">
         <v>724</v>
       </c>
-      <c r="N87" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
         <v>725</v>
       </c>
-      <c r="B88" t="s">
+      <c r="I88" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="L88" t="s">
         <v>727</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J88" s="1" t="s">
+      <c r="O88" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>728</v>
       </c>
-      <c r="K88" t="s">
+      <c r="B89" t="s">
         <v>729</v>
-      </c>
-      <c r="N88" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>730</v>
-      </c>
-      <c r="B89" t="s">
-        <v>731</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -7512,39 +7572,40 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
+        <v>730</v>
+      </c>
+      <c r="F89" t="s">
+        <v>731</v>
+      </c>
+      <c r="G89" t="s">
         <v>732</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>733</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H89" t="s">
+      <c r="L89" t="s">
         <v>735</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="M89" t="s">
         <v>736</v>
       </c>
-      <c r="K89" t="s">
+      <c r="O89" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>737</v>
       </c>
-      <c r="L89" t="s">
+      <c r="B90" t="s">
         <v>738</v>
-      </c>
-      <c r="N89" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>739</v>
-      </c>
-      <c r="B90" t="s">
-        <v>740</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -7553,39 +7614,40 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
+        <v>739</v>
+      </c>
+      <c r="F90" t="s">
+        <v>740</v>
+      </c>
+      <c r="G90" t="s">
         <v>741</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>742</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="H90" t="s">
+      <c r="L90" t="s">
         <v>744</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J90" s="1" t="s">
+      <c r="M90" t="s">
         <v>745</v>
       </c>
-      <c r="K90" t="s">
+      <c r="O90" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>746</v>
       </c>
-      <c r="L90" t="s">
+      <c r="B91" t="s">
         <v>747</v>
-      </c>
-      <c r="N90" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>748</v>
-      </c>
-      <c r="B91" t="s">
-        <v>749</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -7594,39 +7656,40 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
+        <v>748</v>
+      </c>
+      <c r="F91" t="s">
+        <v>749</v>
+      </c>
+      <c r="G91" t="s">
         <v>750</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>751</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="H91" t="s">
+      <c r="L91" t="s">
         <v>753</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J91" s="1" t="s">
+      <c r="M91" t="s">
         <v>754</v>
       </c>
-      <c r="K91" t="s">
+      <c r="O91" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>755</v>
       </c>
-      <c r="L91" t="s">
+      <c r="B92" t="s">
         <v>756</v>
-      </c>
-      <c r="N91" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="102" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>757</v>
-      </c>
-      <c r="B92" t="s">
-        <v>758</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -7635,42 +7698,43 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
+        <v>757</v>
+      </c>
+      <c r="F92" t="s">
+        <v>758</v>
+      </c>
+      <c r="G92" t="s">
         <v>759</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>760</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L92" t="s">
         <v>761</v>
       </c>
-      <c r="H92" t="s">
+      <c r="M92" t="s">
         <v>762</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="O92" t="s">
+        <v>1161</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>763</v>
       </c>
-      <c r="L92" t="s">
+      <c r="B93" t="s">
         <v>764</v>
-      </c>
-      <c r="N92" t="s">
-        <v>1163</v>
-      </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>765</v>
-      </c>
-      <c r="B93" t="s">
-        <v>766</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -7679,39 +7743,40 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
+        <v>765</v>
+      </c>
+      <c r="F93" t="s">
+        <v>766</v>
+      </c>
+      <c r="G93" t="s">
         <v>767</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>768</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="H93" t="s">
+      <c r="L93" t="s">
         <v>770</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="M93" t="s">
         <v>771</v>
       </c>
-      <c r="K93" t="s">
+      <c r="O93" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>772</v>
       </c>
-      <c r="L93" t="s">
+      <c r="B94" t="s">
         <v>773</v>
-      </c>
-      <c r="N93" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>774</v>
-      </c>
-      <c r="B94" t="s">
-        <v>775</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -7720,39 +7785,40 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
+        <v>774</v>
+      </c>
+      <c r="F94" t="s">
+        <v>775</v>
+      </c>
+      <c r="G94" t="s">
         <v>776</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>777</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H94" t="s">
+      <c r="L94" t="s">
         <v>779</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="M94" t="s">
         <v>780</v>
       </c>
-      <c r="K94" t="s">
+      <c r="O94" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>781</v>
       </c>
-      <c r="L94" t="s">
+      <c r="B95" t="s">
         <v>782</v>
-      </c>
-      <c r="N94" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>783</v>
-      </c>
-      <c r="B95" t="s">
-        <v>784</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -7761,39 +7827,40 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
+        <v>783</v>
+      </c>
+      <c r="F95" t="s">
+        <v>784</v>
+      </c>
+      <c r="G95" t="s">
         <v>785</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>786</v>
       </c>
-      <c r="G95" t="s">
+      <c r="I95" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L95" t="s">
         <v>787</v>
       </c>
-      <c r="H95" t="s">
+      <c r="M95" t="s">
         <v>788</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="O95" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>789</v>
       </c>
-      <c r="L95" t="s">
+      <c r="B96" t="s">
         <v>790</v>
-      </c>
-      <c r="N95" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>791</v>
-      </c>
-      <c r="B96" t="s">
-        <v>792</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -7802,39 +7869,40 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
+        <v>791</v>
+      </c>
+      <c r="F96" t="s">
+        <v>792</v>
+      </c>
+      <c r="G96" t="s">
         <v>793</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H96" t="s">
         <v>794</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H96" t="s">
+      <c r="L96" t="s">
         <v>796</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J96" s="1" t="s">
+      <c r="M96" t="s">
         <v>797</v>
       </c>
-      <c r="K96" t="s">
+      <c r="O96" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>798</v>
       </c>
-      <c r="L96" t="s">
+      <c r="B97" t="s">
         <v>799</v>
-      </c>
-      <c r="N96" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>800</v>
-      </c>
-      <c r="B97" t="s">
-        <v>801</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -7843,79 +7911,82 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
+        <v>800</v>
+      </c>
+      <c r="F97" t="s">
+        <v>801</v>
+      </c>
+      <c r="G97" t="s">
         <v>802</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>803</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J97" s="3"/>
+      <c r="K97" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="H97" t="s">
+      <c r="L97" t="s">
         <v>805</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J97" s="1" t="s">
+      <c r="M97" t="s">
         <v>806</v>
       </c>
-      <c r="K97" t="s">
+      <c r="O97" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>807</v>
       </c>
-      <c r="L97" t="s">
+      <c r="B98" t="s">
         <v>808</v>
       </c>
-      <c r="N97" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" t="s">
         <v>809</v>
       </c>
-      <c r="B98" t="s">
+      <c r="I98" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J98" s="3"/>
+      <c r="L98" t="s">
         <v>810</v>
       </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" t="s">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>811</v>
       </c>
-      <c r="I98" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="B99" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
         <v>813</v>
       </c>
-      <c r="B99" t="s">
+      <c r="I99" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="L99" t="s">
         <v>814</v>
       </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" t="s">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>815</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K99" t="s">
+      <c r="B100" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>817</v>
-      </c>
-      <c r="B100" t="s">
-        <v>818</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -7924,53 +7995,55 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
+        <v>817</v>
+      </c>
+      <c r="F100" t="s">
+        <v>818</v>
+      </c>
+      <c r="G100" t="s">
         <v>819</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>820</v>
       </c>
-      <c r="G100" t="s">
+      <c r="I100" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="L100" t="s">
         <v>821</v>
       </c>
-      <c r="H100" t="s">
+      <c r="M100" t="s">
         <v>822</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K100" t="s">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>823</v>
       </c>
-      <c r="L100" t="s">
+      <c r="B101" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
         <v>825</v>
       </c>
-      <c r="B101" t="s">
+      <c r="I101" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="L101" t="s">
         <v>826</v>
       </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>827</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K101" t="s">
+      <c r="B102" t="s">
         <v>828</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>829</v>
-      </c>
-      <c r="B102" t="s">
-        <v>830</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -7979,33 +8052,34 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
+        <v>829</v>
+      </c>
+      <c r="F102" t="s">
+        <v>830</v>
+      </c>
+      <c r="G102" t="s">
+        <v>829</v>
+      </c>
+      <c r="H102" t="s">
+        <v>828</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="L102" t="s">
         <v>831</v>
       </c>
-      <c r="F102" t="s">
+      <c r="M102" t="s">
         <v>832</v>
       </c>
-      <c r="G102" t="s">
-        <v>831</v>
-      </c>
-      <c r="H102" t="s">
-        <v>830</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K102" t="s">
+    </row>
+    <row r="103" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>833</v>
       </c>
-      <c r="L102" t="s">
+      <c r="B103" t="s">
         <v>834</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>835</v>
-      </c>
-      <c r="B103" t="s">
-        <v>836</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -8014,33 +8088,34 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
+        <v>835</v>
+      </c>
+      <c r="F103" t="s">
+        <v>836</v>
+      </c>
+      <c r="G103" t="s">
         <v>837</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103" t="s">
         <v>838</v>
       </c>
-      <c r="G103" t="s">
+      <c r="I103" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="H103" t="s">
+      <c r="O103" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>840</v>
       </c>
-      <c r="I103" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J103" s="1" t="s">
+      <c r="B104" t="s">
         <v>841</v>
-      </c>
-      <c r="N103" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>842</v>
-      </c>
-      <c r="B104" t="s">
-        <v>843</v>
       </c>
       <c r="C104" t="s">
         <v>16</v>
@@ -8049,50 +8124,52 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F104" t="s">
+        <v>842</v>
+      </c>
+      <c r="G104" t="s">
+        <v>843</v>
+      </c>
+      <c r="H104" t="s">
         <v>844</v>
       </c>
-      <c r="G104" t="s">
+      <c r="I104" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="H104" t="s">
+      <c r="O104" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>846</v>
       </c>
-      <c r="I104" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J104" s="1" t="s">
+      <c r="B105" t="s">
         <v>847</v>
       </c>
-      <c r="N104" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
         <v>848</v>
       </c>
-      <c r="B105" t="s">
+      <c r="I105" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>849</v>
       </c>
-      <c r="C105" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="B106" t="s">
         <v>850</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>851</v>
-      </c>
-      <c r="B106" t="s">
-        <v>852</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -8101,27 +8178,28 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
+        <v>851</v>
+      </c>
+      <c r="F106" t="s">
+        <v>852</v>
+      </c>
+      <c r="G106" t="s">
         <v>853</v>
       </c>
-      <c r="F106" t="s">
+      <c r="H106" t="s">
         <v>854</v>
       </c>
-      <c r="G106" t="s">
-        <v>855</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>856</v>
       </c>
-      <c r="I106" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>858</v>
-      </c>
       <c r="B107" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C107" t="s">
         <v>16</v>
@@ -8130,33 +8208,34 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
+        <v>858</v>
+      </c>
+      <c r="F107" t="s">
+        <v>859</v>
+      </c>
+      <c r="G107" t="s">
         <v>860</v>
       </c>
-      <c r="F107" t="s">
+      <c r="H107" t="s">
         <v>861</v>
       </c>
-      <c r="G107" t="s">
+      <c r="I107" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="H107" t="s">
+      <c r="O107" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>863</v>
       </c>
-      <c r="I107" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J107" s="2" t="s">
+      <c r="B108" t="s">
         <v>864</v>
-      </c>
-      <c r="N107" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>865</v>
-      </c>
-      <c r="B108" t="s">
-        <v>866</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
@@ -8165,27 +8244,28 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
+        <v>865</v>
+      </c>
+      <c r="F108" t="s">
+        <v>866</v>
+      </c>
+      <c r="G108" t="s">
         <v>867</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H108" t="s">
         <v>868</v>
       </c>
-      <c r="G108" t="s">
+      <c r="I108" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>869</v>
       </c>
-      <c r="H108" t="s">
+      <c r="B109" t="s">
         <v>870</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>871</v>
-      </c>
-      <c r="B109" t="s">
-        <v>872</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -8194,27 +8274,28 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
+        <v>871</v>
+      </c>
+      <c r="F109" t="s">
+        <v>872</v>
+      </c>
+      <c r="G109" t="s">
         <v>873</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H109" t="s">
         <v>874</v>
       </c>
-      <c r="G109" t="s">
+      <c r="I109" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>875</v>
       </c>
-      <c r="H109" t="s">
+      <c r="B110" t="s">
         <v>876</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>877</v>
-      </c>
-      <c r="B110" t="s">
-        <v>878</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -8223,27 +8304,28 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
+        <v>877</v>
+      </c>
+      <c r="F110" t="s">
+        <v>878</v>
+      </c>
+      <c r="G110" t="s">
         <v>879</v>
       </c>
-      <c r="F110" t="s">
+      <c r="H110" t="s">
         <v>880</v>
       </c>
-      <c r="G110" t="s">
+      <c r="I110" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>881</v>
       </c>
-      <c r="H110" t="s">
+      <c r="B111" t="s">
         <v>882</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>883</v>
-      </c>
-      <c r="B111" t="s">
-        <v>884</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
@@ -8252,27 +8334,28 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
+        <v>883</v>
+      </c>
+      <c r="F111" t="s">
+        <v>884</v>
+      </c>
+      <c r="G111" t="s">
         <v>885</v>
       </c>
-      <c r="F111" t="s">
+      <c r="H111" t="s">
         <v>886</v>
       </c>
-      <c r="G111" t="s">
+      <c r="I111" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>887</v>
       </c>
-      <c r="H111" t="s">
+      <c r="B112" t="s">
         <v>888</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>889</v>
-      </c>
-      <c r="B112" t="s">
-        <v>890</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
@@ -8281,27 +8364,28 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
+        <v>889</v>
+      </c>
+      <c r="F112" t="s">
+        <v>890</v>
+      </c>
+      <c r="G112" t="s">
         <v>891</v>
       </c>
-      <c r="F112" t="s">
+      <c r="H112" t="s">
         <v>892</v>
       </c>
-      <c r="G112" t="s">
+      <c r="I112" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>893</v>
       </c>
-      <c r="H112" t="s">
+      <c r="B113" t="s">
         <v>894</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>895</v>
-      </c>
-      <c r="B113" t="s">
-        <v>896</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
@@ -8310,27 +8394,30 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
+        <v>895</v>
+      </c>
+      <c r="F113" t="s">
+        <v>896</v>
+      </c>
+      <c r="G113" t="s">
         <v>897</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" t="s">
         <v>898</v>
       </c>
-      <c r="G113" t="s">
+      <c r="I113" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>899</v>
       </c>
-      <c r="H113" t="s">
+      <c r="B114" t="s">
         <v>900</v>
-      </c>
-      <c r="I113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>901</v>
-      </c>
-      <c r="B114" t="s">
-        <v>902</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
@@ -8339,27 +8426,28 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
+        <v>901</v>
+      </c>
+      <c r="F114" t="s">
+        <v>902</v>
+      </c>
+      <c r="G114" t="s">
         <v>903</v>
       </c>
-      <c r="F114" t="s">
+      <c r="H114" t="s">
         <v>904</v>
       </c>
-      <c r="G114" t="s">
+      <c r="I114" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>905</v>
       </c>
-      <c r="H114" t="s">
+      <c r="B115" t="s">
         <v>906</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>907</v>
-      </c>
-      <c r="B115" t="s">
-        <v>908</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
@@ -8368,27 +8456,28 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
+        <v>907</v>
+      </c>
+      <c r="F115" t="s">
+        <v>908</v>
+      </c>
+      <c r="G115" t="s">
         <v>909</v>
       </c>
-      <c r="F115" t="s">
+      <c r="H115" t="s">
         <v>910</v>
       </c>
-      <c r="G115" t="s">
+      <c r="I115" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>911</v>
       </c>
-      <c r="H115" t="s">
+      <c r="B116" t="s">
         <v>912</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>913</v>
-      </c>
-      <c r="B116" t="s">
-        <v>914</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
@@ -8397,27 +8486,28 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
+        <v>913</v>
+      </c>
+      <c r="F116" t="s">
+        <v>914</v>
+      </c>
+      <c r="G116" t="s">
         <v>915</v>
       </c>
-      <c r="F116" t="s">
+      <c r="H116" t="s">
         <v>916</v>
       </c>
-      <c r="G116" t="s">
+      <c r="I116" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>917</v>
       </c>
-      <c r="H116" t="s">
+      <c r="B117" t="s">
         <v>918</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>919</v>
-      </c>
-      <c r="B117" t="s">
-        <v>920</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -8426,27 +8516,28 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
+        <v>919</v>
+      </c>
+      <c r="F117" t="s">
+        <v>920</v>
+      </c>
+      <c r="G117" t="s">
         <v>921</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" t="s">
         <v>922</v>
       </c>
-      <c r="G117" t="s">
+      <c r="I117" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>923</v>
       </c>
-      <c r="H117" t="s">
+      <c r="B118" t="s">
         <v>924</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>925</v>
-      </c>
-      <c r="B118" t="s">
-        <v>926</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -8455,27 +8546,30 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
+        <v>925</v>
+      </c>
+      <c r="F118" t="s">
+        <v>926</v>
+      </c>
+      <c r="G118" t="s">
         <v>927</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H118" t="s">
         <v>928</v>
       </c>
-      <c r="G118" t="s">
+      <c r="I118" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>929</v>
       </c>
-      <c r="H118" t="s">
+      <c r="B119" t="s">
         <v>930</v>
-      </c>
-      <c r="I118" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>931</v>
-      </c>
-      <c r="B119" t="s">
-        <v>932</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -8484,27 +8578,30 @@
         <v>7</v>
       </c>
       <c r="E119" t="s">
+        <v>931</v>
+      </c>
+      <c r="F119" t="s">
+        <v>932</v>
+      </c>
+      <c r="G119" t="s">
         <v>933</v>
       </c>
-      <c r="F119" t="s">
+      <c r="H119" t="s">
         <v>934</v>
       </c>
-      <c r="G119" t="s">
+      <c r="I119" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>935</v>
       </c>
-      <c r="H119" t="s">
+      <c r="B120" t="s">
         <v>936</v>
-      </c>
-      <c r="I119" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>937</v>
-      </c>
-      <c r="B120" t="s">
-        <v>938</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -8513,27 +8610,28 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
+        <v>937</v>
+      </c>
+      <c r="F120" t="s">
+        <v>938</v>
+      </c>
+      <c r="G120" t="s">
         <v>939</v>
       </c>
-      <c r="F120" t="s">
+      <c r="H120" t="s">
         <v>940</v>
       </c>
-      <c r="G120" t="s">
+      <c r="I120" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>941</v>
       </c>
-      <c r="H120" t="s">
+      <c r="B121" t="s">
         <v>942</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>943</v>
-      </c>
-      <c r="B121" t="s">
-        <v>944</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
@@ -8542,27 +8640,30 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
+        <v>943</v>
+      </c>
+      <c r="F121" t="s">
+        <v>944</v>
+      </c>
+      <c r="G121" t="s">
         <v>945</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>946</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>947</v>
       </c>
-      <c r="H121" t="s">
+      <c r="B122" t="s">
         <v>948</v>
-      </c>
-      <c r="I121" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>949</v>
-      </c>
-      <c r="B122" t="s">
-        <v>950</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
@@ -8571,24 +8672,27 @@
         <v>7</v>
       </c>
       <c r="E122" t="s">
+        <v>949</v>
+      </c>
+      <c r="F122" t="s">
+        <v>950</v>
+      </c>
+      <c r="G122" t="s">
         <v>951</v>
       </c>
-      <c r="F122" t="s">
+      <c r="H122" t="s">
         <v>952</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I122" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>953</v>
       </c>
-      <c r="H122" t="s">
+      <c r="B123" t="s">
         <v>954</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>955</v>
-      </c>
-      <c r="B123" t="s">
-        <v>956</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
@@ -8597,27 +8701,28 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
+        <v>955</v>
+      </c>
+      <c r="F123" t="s">
+        <v>956</v>
+      </c>
+      <c r="G123" t="s">
         <v>957</v>
       </c>
-      <c r="F123" t="s">
+      <c r="H123" t="s">
         <v>958</v>
       </c>
-      <c r="G123" t="s">
+      <c r="I123" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>959</v>
       </c>
-      <c r="H123" t="s">
+      <c r="B124" t="s">
         <v>960</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>961</v>
-      </c>
-      <c r="B124" t="s">
-        <v>962</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
@@ -8626,27 +8731,28 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
+        <v>961</v>
+      </c>
+      <c r="F124" t="s">
+        <v>962</v>
+      </c>
+      <c r="G124" t="s">
         <v>963</v>
       </c>
-      <c r="F124" t="s">
+      <c r="H124" t="s">
         <v>964</v>
       </c>
-      <c r="G124" t="s">
+      <c r="I124" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>965</v>
       </c>
-      <c r="H124" t="s">
+      <c r="B125" t="s">
         <v>966</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>967</v>
-      </c>
-      <c r="B125" t="s">
-        <v>968</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -8655,27 +8761,28 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
+        <v>967</v>
+      </c>
+      <c r="F125" t="s">
+        <v>968</v>
+      </c>
+      <c r="G125" t="s">
         <v>969</v>
       </c>
-      <c r="F125" t="s">
+      <c r="H125" t="s">
         <v>970</v>
       </c>
-      <c r="G125" t="s">
+      <c r="I125" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>971</v>
       </c>
-      <c r="H125" t="s">
+      <c r="B126" t="s">
         <v>972</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>973</v>
-      </c>
-      <c r="B126" t="s">
-        <v>974</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
@@ -8684,27 +8791,28 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
+        <v>973</v>
+      </c>
+      <c r="F126" t="s">
+        <v>974</v>
+      </c>
+      <c r="G126" t="s">
         <v>975</v>
       </c>
-      <c r="F126" t="s">
+      <c r="H126" t="s">
         <v>976</v>
       </c>
-      <c r="G126" t="s">
+      <c r="I126" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>977</v>
       </c>
-      <c r="H126" t="s">
+      <c r="B127" t="s">
         <v>978</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>979</v>
-      </c>
-      <c r="B127" t="s">
-        <v>980</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
@@ -8713,27 +8821,28 @@
         <v>7</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="F127" t="s">
+        <v>980</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="F127" t="s">
+      <c r="H127" t="s">
         <v>982</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="I127" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>983</v>
       </c>
-      <c r="H127" t="s">
+      <c r="B128" t="s">
         <v>984</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>985</v>
-      </c>
-      <c r="B128" t="s">
-        <v>986</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
@@ -8742,27 +8851,28 @@
         <v>2</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F128" t="s">
+        <v>986</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="F128" t="s">
+      <c r="H128" t="s">
         <v>988</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="I128" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>989</v>
       </c>
-      <c r="H128" t="s">
+      <c r="B129" t="s">
         <v>990</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>991</v>
-      </c>
-      <c r="B129" t="s">
-        <v>992</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -8771,27 +8881,28 @@
         <v>1</v>
       </c>
       <c r="E129" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="F129" t="s">
+        <v>992</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="F129" t="s">
+      <c r="H129" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="I129" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>995</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="B130" t="s">
         <v>996</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>997</v>
-      </c>
-      <c r="B130" t="s">
-        <v>998</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
@@ -8800,27 +8911,28 @@
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="F130" t="s">
+        <v>998</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="F130" t="s">
+      <c r="H130" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="I130" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>1001</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="B131" t="s">
         <v>1002</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1004</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
@@ -8829,27 +8941,28 @@
         <v>3</v>
       </c>
       <c r="E131" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="F131" t="s">
+      <c r="H131" t="s">
         <v>1006</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="I131" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>1007</v>
       </c>
-      <c r="H131" t="s">
+      <c r="B132" t="s">
         <v>1008</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1010</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -8858,27 +8971,28 @@
         <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="F132" t="s">
+      <c r="H132" t="s">
         <v>1012</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="I132" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>1013</v>
       </c>
-      <c r="H132" t="s">
+      <c r="B133" t="s">
         <v>1014</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1016</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
@@ -8887,27 +9001,28 @@
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="F133" t="s">
+      <c r="H133" t="s">
         <v>1018</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="I133" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>1019</v>
       </c>
-      <c r="H133" t="s">
+      <c r="B134" t="s">
         <v>1020</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1022</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
@@ -8916,27 +9031,28 @@
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="F134" t="s">
+      <c r="H134" t="s">
         <v>1024</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="I134" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>1025</v>
       </c>
-      <c r="H134" t="s">
+      <c r="B135" t="s">
         <v>1026</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1028</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
@@ -8945,27 +9061,28 @@
         <v>1</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="F135" t="s">
+      <c r="H135" t="s">
         <v>1030</v>
       </c>
-      <c r="G135" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1032</v>
-      </c>
       <c r="I135" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1041</v>
+      </c>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B136" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
@@ -8974,22 +9091,23 @@
         <v>1</v>
       </c>
       <c r="E136" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="F136" t="s">
+      <c r="H136" t="s">
         <v>1040</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1042</v>
-      </c>
       <c r="I136" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1041</v>
+      </c>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -9003,27 +9121,30 @@
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>1046</v>
       </c>
       <c r="H137" t="s">
         <v>29</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1175</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B138" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
@@ -9032,27 +9153,28 @@
         <v>4</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H138" t="s">
         <v>1049</v>
       </c>
-      <c r="F138" t="s">
+      <c r="I138" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>1050</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="B139" t="s">
         <v>1051</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1053</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
@@ -9061,92 +9183,21 @@
         <v>2</v>
       </c>
       <c r="E139" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F139" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="H139" t="s">
         <v>1056</v>
       </c>
-      <c r="H139" t="s">
-        <v>1058</v>
-      </c>
       <c r="I139" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C140" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H140" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C141" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H141" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>1043</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="J139" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
